--- a/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
@@ -544,26 +544,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.016666842533838</v>
+        <v>1.016941763705391</v>
       </c>
       <c r="D2" s="3">
-        <v>1.021458267005489</v>
+        <v>1.020675278455365</v>
       </c>
       <c r="E2" s="3">
-        <v>1.025087901074468</v>
+        <v>1.067383889660408</v>
       </c>
       <c r="F2" s="3">
-        <v>1.025087901074468</v>
+        <v>1.067383889660408</v>
       </c>
       <c r="G2" s="3">
-        <v>1.061137400262594</v>
+        <v>1.101516027248891</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
-        <v>0.06113740026259373</v>
+        <v>0.1015160272488913</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -574,26 +574,26 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.0166714565350967</v>
+        <v>0.01690378226970759</v>
       </c>
       <c r="D3" s="3">
-        <v>0.0210715437041925</v>
+        <v>0.02216453546422651</v>
       </c>
       <c r="E3" s="3">
-        <v>0.02284832807030767</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="F3" s="3">
-        <v>0.02284832807030767</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="G3" s="3">
-        <v>0.06754013155457236</v>
+        <v>0.1188484731714618</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>0.06754013155457236</v>
+        <v>0.1188484731714618</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -604,26 +604,26 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>2.016792900148121</v>
+        <v>2.016836234015502</v>
       </c>
       <c r="D4" s="3">
-        <v>2.023839102413783</v>
+        <v>2.019583013904813</v>
       </c>
       <c r="E4" s="3">
-        <v>2.026522309455892</v>
+        <v>2.050515802663599</v>
       </c>
       <c r="F4" s="3">
-        <v>2.026522309455892</v>
+        <v>2.050515802663599</v>
       </c>
       <c r="G4" s="3">
-        <v>2.071375372726235</v>
+        <v>2.085588821362323</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>0.07137537272623495</v>
+        <v>0.08558882136232349</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -634,26 +634,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1.033357931748275</v>
+        <v>1.03386982960594</v>
       </c>
       <c r="D5" s="3">
-        <v>1.037312399829579</v>
+        <v>1.037373700541583</v>
       </c>
       <c r="E5" s="3">
-        <v>1.044523115367069</v>
+        <v>1.067383889660408</v>
       </c>
       <c r="F5" s="3">
-        <v>1.044523115367069</v>
+        <v>1.067383889660408</v>
       </c>
       <c r="G5" s="3">
-        <v>1.087145864427177</v>
+        <v>1.10228213443604</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
-        <v>0.08714586442717653</v>
+        <v>0.1022821344360398</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -664,26 +664,26 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0.03343997980163041</v>
+        <v>0.03367839650121601</v>
       </c>
       <c r="D6" s="3">
-        <v>0.03615120169322385</v>
+        <v>0.03580744185220169</v>
       </c>
       <c r="E6" s="3">
-        <v>0.04313822011053682</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="F6" s="3">
-        <v>0.04313822011053682</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="G6" s="3">
-        <v>0.08966108158520397</v>
+        <v>0.1196029702201903</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>0.08966108158520397</v>
+        <v>0.1196029702201903</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -694,26 +694,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>2.033613458842638</v>
+        <v>2.033730168805252</v>
       </c>
       <c r="D7" s="3">
-        <v>2.035603151935904</v>
+        <v>2.036830809957054</v>
       </c>
       <c r="E7" s="3">
-        <v>2.036513682233838</v>
+        <v>2.050515802663599</v>
       </c>
       <c r="F7" s="3">
-        <v>2.036513682233838</v>
+        <v>2.050515802663599</v>
       </c>
       <c r="G7" s="3">
-        <v>2.076207047756572</v>
+        <v>2.085749437073432</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>0.07620704775657217</v>
+        <v>0.08574943707343197</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -724,26 +724,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1.050072504696874</v>
+        <v>1.050650848706033</v>
       </c>
       <c r="D8" s="3">
-        <v>1.052135403710968</v>
+        <v>1.053304501023851</v>
       </c>
       <c r="E8" s="3">
-        <v>1.057648183500572</v>
+        <v>1.067383889660408</v>
       </c>
       <c r="F8" s="3">
-        <v>1.057648183500572</v>
+        <v>1.067383889660408</v>
       </c>
       <c r="G8" s="3">
-        <v>1.106270484915306</v>
+        <v>1.102576556911357</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
-        <v>0.1062704849153062</v>
+        <v>0.102576556911357</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -754,26 +754,26 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0.05014294680389454</v>
+        <v>0.0505640801606605</v>
       </c>
       <c r="D9" s="3">
-        <v>0.05071103353905772</v>
+        <v>0.05351121252603577</v>
       </c>
       <c r="E9" s="3">
-        <v>0.05689409013758166</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="F9" s="3">
-        <v>0.05689409013758166</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="G9" s="3">
-        <v>0.09272978195990145</v>
+        <v>0.1189858131366685</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>0.09272978195990145</v>
+        <v>0.1189858131366685</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -784,26 +784,26 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>2.050435023564909</v>
+        <v>2.050515802663599</v>
       </c>
       <c r="D10" s="3">
-        <v>2.057459814513805</v>
+        <v>2.052601113920915</v>
       </c>
       <c r="E10" s="3">
-        <v>2.062079990610833</v>
+        <v>2.052601113920915</v>
       </c>
       <c r="F10" s="3">
-        <v>2.062079990610833</v>
+        <v>2.052601113920915</v>
       </c>
       <c r="G10" s="3">
-        <v>2.106438224300163</v>
+        <v>2.086153060432608</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>0.1064382243001631</v>
+        <v>0.08615306043260818</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -814,26 +814,26 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1.066741289544162</v>
+        <v>1.067383889660408</v>
       </c>
       <c r="D11" s="3">
-        <v>1.073434749017888</v>
+        <v>1.069936727484375</v>
       </c>
       <c r="E11" s="3">
-        <v>1.080793076631607</v>
+        <v>1.069936727484375</v>
       </c>
       <c r="F11" s="3">
-        <v>1.080793076631607</v>
+        <v>1.069936727484375</v>
       </c>
       <c r="G11" s="3">
-        <v>1.121751709916984</v>
+        <v>1.104022759610837</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>0.1217517099169843</v>
+        <v>0.1040227596108374</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -844,26 +844,26 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0.06691947919134494</v>
+        <v>0.06747566682600976</v>
       </c>
       <c r="D12" s="3">
-        <v>0.07450640608722754</v>
+        <v>0.07007545330710548</v>
       </c>
       <c r="E12" s="3">
-        <v>0.08122167422342733</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="F12" s="3">
-        <v>0.08122167422342733</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="G12" s="3">
-        <v>0.1229869844599344</v>
+        <v>0.118367420087948</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>0.1229869844599344</v>
+        <v>0.118367420087948</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -874,26 +874,26 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>0.08372446632501494</v>
+        <v>0.08439982702423547</v>
       </c>
       <c r="D13" s="3">
-        <v>0.08671693409177894</v>
+        <v>0.08677173833627121</v>
       </c>
       <c r="E13" s="3">
-        <v>0.09333604357500795</v>
+        <v>0.08677173833627121</v>
       </c>
       <c r="F13" s="3">
-        <v>0.09333604357500795</v>
+        <v>0.08677173833627121</v>
       </c>
       <c r="G13" s="3">
-        <v>0.1419422476899368</v>
+        <v>0.1204889655798772</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>0.1419422476899368</v>
+        <v>0.1204889655798772</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -903,27 +903,27 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>1.026753343580318</v>
+        <v>1.072426627565779</v>
       </c>
       <c r="E14" s="3">
-        <v>1.031707443528913</v>
+        <v>1.079051751182224</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <v>0.03103566963416919</v>
+        <v>0.01896553698688131</v>
       </c>
       <c r="I14" s="3">
-        <v>0.03103566963416919</v>
+        <v>0.01896553698688131</v>
       </c>
       <c r="J14" s="3">
-        <v>1.140354915307513</v>
+        <v>1.146191767247768</v>
       </c>
       <c r="K14" s="3">
-        <v>1.140354915307513</v>
+        <v>1.146191767247768</v>
       </c>
       <c r="L14" s="3">
-        <v>1.109319245673344</v>
+        <v>1.127226230260887</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -933,27 +933,27 @@
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
-        <v>0.06132199635690816</v>
+        <v>0.08799754293064842</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0677221137089726</v>
+        <v>0.09833400939958981</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <v>0.02872859197506501</v>
+        <v>0.01802561385012095</v>
       </c>
       <c r="I15" s="3">
-        <v>0.02872859197506501</v>
+        <v>0.01802561385012095</v>
       </c>
       <c r="J15" s="3">
-        <v>0.1040804682376354</v>
+        <v>0.1172225933808737</v>
       </c>
       <c r="K15" s="3">
-        <v>0.1207704928225528</v>
+        <v>0.133945654483782</v>
       </c>
       <c r="L15" s="3">
-        <v>0.07535187626257035</v>
+        <v>0.09919697953075277</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -963,27 +963,27 @@
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>1.085821386733853</v>
+        <v>1.069296535926415</v>
       </c>
       <c r="E16" s="3">
-        <v>1.087352357578629</v>
+        <v>1.077857510726712</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>0.05596071875367926</v>
+        <v>0.0369188392132228</v>
       </c>
       <c r="I16" s="3">
-        <v>0.05596071875367926</v>
+        <v>0.0369188392132228</v>
       </c>
       <c r="J16" s="3">
-        <v>2.107652039490718</v>
+        <v>2.075035575698707</v>
       </c>
       <c r="K16" s="3">
-        <v>2.14105092336552</v>
+        <v>2.14210983063317</v>
       </c>
       <c r="L16" s="3">
-        <v>2.051691320737039</v>
+        <v>2.038116736485484</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -993,27 +993,27 @@
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>0.04837487679013172</v>
+        <v>0.08980313009552859</v>
       </c>
       <c r="E17" s="3">
-        <v>0.05189347734286485</v>
+        <v>0.09130448140450807</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>0.02314664409157181</v>
+        <v>0.018737123530644</v>
       </c>
       <c r="I17" s="3">
-        <v>0.02314664409157181</v>
+        <v>0.018737123530644</v>
       </c>
       <c r="J17" s="3">
-        <v>1.090191769499732</v>
+        <v>1.095815341786085</v>
       </c>
       <c r="K17" s="3">
-        <v>1.140354915307513</v>
+        <v>1.146191767247768</v>
       </c>
       <c r="L17" s="3">
-        <v>1.067045125408161</v>
+        <v>1.077078218255441</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,27 +1023,27 @@
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>0.0848530843687029</v>
+        <v>0.09045957568557045</v>
       </c>
       <c r="E18" s="3">
-        <v>0.08727529976887971</v>
+        <v>0.1003605393673891</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>0.02962942874773809</v>
+        <v>0.01840249984170718</v>
       </c>
       <c r="I18" s="3">
-        <v>0.02962942874773809</v>
+        <v>0.01840249984170718</v>
       </c>
       <c r="J18" s="3">
-        <v>0.1207704928225528</v>
+        <v>0.133945654483782</v>
       </c>
       <c r="K18" s="3">
-        <v>0.1207704928225528</v>
+        <v>0.133945654483782</v>
       </c>
       <c r="L18" s="3">
-        <v>0.09114106407481472</v>
+        <v>0.1155431546420748</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1053,27 +1053,27 @@
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>1.061824062538955</v>
+        <v>1.074380253212487</v>
       </c>
       <c r="E19" s="3">
-        <v>1.064512866116285</v>
+        <v>1.083814889630604</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <v>0.05478274410154461</v>
+        <v>0.0371557139206498</v>
       </c>
       <c r="I19" s="3">
-        <v>0.05478274410154461</v>
+        <v>0.0371557139206498</v>
       </c>
       <c r="J19" s="3">
-        <v>2.090960448476348</v>
+        <v>2.108507768712268</v>
       </c>
       <c r="K19" s="3">
-        <v>2.14105092336552</v>
+        <v>2.14210983063317</v>
       </c>
       <c r="L19" s="3">
-        <v>2.036177704374803</v>
+        <v>2.071352054791618</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1083,27 +1083,27 @@
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
-        <v>0.05382048051872467</v>
+        <v>0.09290542355710019</v>
       </c>
       <c r="E20" s="3">
-        <v>0.05784038053517843</v>
+        <v>0.1027582460760374</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>0.02577789865767872</v>
+        <v>0.01844961957527937</v>
       </c>
       <c r="I20" s="3">
-        <v>0.02577789865767872</v>
+        <v>0.01844961957527937</v>
       </c>
       <c r="J20" s="3">
-        <v>1.106871405426445</v>
+        <v>1.112610376468318</v>
       </c>
       <c r="K20" s="3">
-        <v>1.140354915307513</v>
+        <v>1.146191767247768</v>
       </c>
       <c r="L20" s="3">
-        <v>1.081093506768766</v>
+        <v>1.094160756893038</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1113,27 +1113,27 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>1.048322012627579</v>
+        <v>1.077436577634533</v>
       </c>
       <c r="E21" s="3">
-        <v>1.048916584789091</v>
+        <v>1.08280942537765</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>0.05282083235561298</v>
+        <v>0.03739516017034913</v>
       </c>
       <c r="I21" s="3">
-        <v>0.05282083235561298</v>
+        <v>0.03739516017034913</v>
       </c>
       <c r="J21" s="3">
-        <v>2.074222131264265</v>
+        <v>2.091764853481776</v>
       </c>
       <c r="K21" s="3">
-        <v>2.14105092336552</v>
+        <v>2.14210983063317</v>
       </c>
       <c r="L21" s="3">
-        <v>2.021401298908652</v>
+        <v>2.054369693311427</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1143,27 +1143,27 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>0.09689539642874397</v>
+        <v>0.09312391353854607</v>
       </c>
       <c r="E22" s="3">
-        <v>0.09947563572816992</v>
+        <v>0.1032977367385963</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>0.0297804348371455</v>
+        <v>0.01895101826228155</v>
       </c>
       <c r="I22" s="3">
-        <v>0.0297804348371455</v>
+        <v>0.01895101826228155</v>
       </c>
       <c r="J22" s="3">
-        <v>1.123538131600867</v>
+        <v>1.129468416112776</v>
       </c>
       <c r="K22" s="3">
-        <v>1.140354915307513</v>
+        <v>1.146191767247768</v>
       </c>
       <c r="L22" s="3">
-        <v>1.093757696763722</v>
+        <v>1.110517397850495</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1173,27 +1173,27 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>2.032012430881712</v>
+        <v>2.05342335349218</v>
       </c>
       <c r="E23" s="3">
-        <v>2.037153126295521</v>
+        <v>2.058352129012577</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>0.06159865994837277</v>
+        <v>0.0534864281015958</v>
       </c>
       <c r="I23" s="3">
-        <v>0.06159865994837277</v>
+        <v>0.0534864281015958</v>
       </c>
       <c r="J23" s="3">
-        <v>2.124361384644269</v>
+        <v>2.14210983063317</v>
       </c>
       <c r="K23" s="3">
-        <v>2.14105092336552</v>
+        <v>2.14210983063317</v>
       </c>
       <c r="L23" s="3">
-        <v>2.062762724695896</v>
+        <v>2.088623402531574</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1203,27 +1203,27 @@
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <v>2.041954487807428</v>
+        <v>2.052508998925938</v>
       </c>
       <c r="E24" s="3">
-        <v>2.046295250231361</v>
+        <v>2.057003614755747</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <v>0.07452150861352054</v>
+        <v>0.05516339099277409</v>
       </c>
       <c r="I24" s="3">
-        <v>0.07452150861352054</v>
+        <v>0.05516339099277409</v>
       </c>
       <c r="J24" s="3">
-        <v>2.14105092336552</v>
+        <v>2.125330189627507</v>
       </c>
       <c r="K24" s="3">
-        <v>2.14105092336552</v>
+        <v>2.14210983063317</v>
       </c>
       <c r="L24" s="3">
-        <v>2.066529414752</v>
+        <v>2.070166798634733</v>
       </c>
     </row>
   </sheetData>

--- a/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqiantong/PycharmProjects/altrios-private/altrios/python/demos/double_track_results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A679A497-B4D7-0948-88AF-E4884130672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="17140" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -124,12 +130,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000;[Red]-#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,44 +179,78 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf/>
+  <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]-#,##0.000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L24" totalsRowShown="0">
-  <autoFilter ref="A1:L24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:L24" totalsRowShown="0">
+  <autoFilter ref="A1:L24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="container_id" dataDxfId="0"/>
-    <tableColumn id="2" name="train_arrival" dataDxfId="1"/>
-    <tableColumn id="3" name="crane_unload" dataDxfId="2"/>
-    <tableColumn id="4" name="hostler_pickup" dataDxfId="2"/>
-    <tableColumn id="5" name="hostler_dropoff" dataDxfId="2"/>
-    <tableColumn id="6" name="truck_pickup" dataDxfId="2"/>
-    <tableColumn id="7" name="truck_exit" dataDxfId="2"/>
-    <tableColumn id="8" name="truck_arrival" dataDxfId="2"/>
-    <tableColumn id="9" name="truck_dropoff" dataDxfId="2"/>
-    <tableColumn id="10" name="crane_load" dataDxfId="2"/>
-    <tableColumn id="11" name="train_depart" dataDxfId="2"/>
-    <tableColumn id="12" name="container_processing_time" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="container_id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="train_arrival" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="crane_unload" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="hostler_pickup" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="hostler_dropoff" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="truck_pickup" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="truck_exit" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="truck_arrival" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="truck_dropoff" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="crane_load" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="train_depart" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="container_processing_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -282,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,14 +533,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -544,29 +589,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.016941763705391</v>
+        <v>1.016941575650574</v>
       </c>
       <c r="D2" s="3">
-        <v>1.020675278455365</v>
+        <v>1.0211697527762269</v>
       </c>
       <c r="E2" s="3">
-        <v>1.067383889660408</v>
+        <v>1.0674635450801631</v>
       </c>
       <c r="F2" s="3">
-        <v>1.067383889660408</v>
+        <v>1.0674635450801631</v>
       </c>
       <c r="G2" s="3">
-        <v>1.101516027248891</v>
+        <v>1.101127077509475</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
-        <v>0.1015160272488913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1011270775094746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -574,29 +619,29 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.01690378226970759</v>
+        <v>1.68729634030843E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>0.02216453546422651</v>
+        <v>2.099056313116112E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>0.1188484731714618</v>
+        <v>0.1196479796638774</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>0.1188484731714618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1196479796638774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -604,29 +649,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>2.016836234015502</v>
+        <v>2.0168124356167429</v>
       </c>
       <c r="D4" s="3">
-        <v>2.019583013904813</v>
+        <v>2.0208570276172759</v>
       </c>
       <c r="E4" s="3">
-        <v>2.050515802663599</v>
+        <v>2.0504637170818172</v>
       </c>
       <c r="F4" s="3">
-        <v>2.050515802663599</v>
+        <v>2.0504637170818172</v>
       </c>
       <c r="G4" s="3">
-        <v>2.085588821362323</v>
+        <v>2.085339213634446</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>0.08558882136232349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.5339213634445965E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -634,29 +679,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1.03386982960594</v>
+        <v>1.033874095738335</v>
       </c>
       <c r="D5" s="3">
-        <v>1.037373700541583</v>
+        <v>1.0357741574353769</v>
       </c>
       <c r="E5" s="3">
-        <v>1.067383889660408</v>
+        <v>1.0674635450801631</v>
       </c>
       <c r="F5" s="3">
-        <v>1.067383889660408</v>
+        <v>1.0674635450801631</v>
       </c>
       <c r="G5" s="3">
-        <v>1.10228213443604</v>
+        <v>1.102410655696977</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
-        <v>0.1022821344360398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1024106556969766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -664,29 +709,29 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0.03367839650121601</v>
+        <v>3.3549749322315858E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>0.03580744185220169</v>
+        <v>3.8546228425604907E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.1196029702201903</v>
+        <v>0.1178609685099528</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>0.1196029702201903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1178609685099528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -694,29 +739,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>2.033730168805252</v>
+        <v>2.033621775270201</v>
       </c>
       <c r="D7" s="3">
-        <v>2.036830809957054</v>
+        <v>2.0354347666846548</v>
       </c>
       <c r="E7" s="3">
-        <v>2.050515802663599</v>
+        <v>2.0504637170818172</v>
       </c>
       <c r="F7" s="3">
-        <v>2.050515802663599</v>
+        <v>2.0504637170818172</v>
       </c>
       <c r="G7" s="3">
-        <v>2.085749437073432</v>
+        <v>2.0846494765583299</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>0.08574943707343197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.4649476558329884E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -724,29 +769,29 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1.050650848706033</v>
+        <v>1.050622032989559</v>
       </c>
       <c r="D8" s="3">
-        <v>1.053304501023851</v>
+        <v>1.053581316750045</v>
       </c>
       <c r="E8" s="3">
-        <v>1.067383889660408</v>
+        <v>1.0674635450801631</v>
       </c>
       <c r="F8" s="3">
-        <v>1.067383889660408</v>
+        <v>1.0674635450801631</v>
       </c>
       <c r="G8" s="3">
-        <v>1.102576556911357</v>
+        <v>1.1029804200570199</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
-        <v>0.102576556911357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.10298042005702029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -754,29 +799,29 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0.0505640801606605</v>
+        <v>5.0465197998797243E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>0.05351121252603577</v>
+        <v>5.2558482452216983E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>0.1189858131366685</v>
+        <v>0.1195414541106945</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>0.1189858131366685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1195414541106945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -784,29 +829,29 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>2.050515802663599</v>
+        <v>2.0504637170818172</v>
       </c>
       <c r="D10" s="3">
-        <v>2.052601113920915</v>
+        <v>2.0534072043455249</v>
       </c>
       <c r="E10" s="3">
-        <v>2.052601113920915</v>
+        <v>2.0534072043455249</v>
       </c>
       <c r="F10" s="3">
-        <v>2.052601113920915</v>
+        <v>2.0534072043455249</v>
       </c>
       <c r="G10" s="3">
-        <v>2.086153060432608</v>
+        <v>2.0878697843224971</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>0.08615306043260818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>8.7869784322497146E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -814,29 +859,29 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1.067383889660408</v>
+        <v>1.0674635450801631</v>
       </c>
       <c r="D11" s="3">
-        <v>1.069936727484375</v>
+        <v>1.069885867143429</v>
       </c>
       <c r="E11" s="3">
-        <v>1.069936727484375</v>
+        <v>1.069885867143429</v>
       </c>
       <c r="F11" s="3">
-        <v>1.069936727484375</v>
+        <v>1.069885867143429</v>
       </c>
       <c r="G11" s="3">
-        <v>1.104022759610837</v>
+        <v>1.1034143241170911</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>0.1040227596108374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.1034143241170906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -844,29 +889,29 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0.06747566682600976</v>
+        <v>6.7141267945433153E-2</v>
       </c>
       <c r="D12" s="3">
-        <v>0.07007545330710548</v>
+        <v>6.8708020257644803E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="G12" s="3">
-        <v>0.118367420087948</v>
+        <v>0.11988879445814581</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>0.118367420087948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.11988879445814581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -874,356 +919,356 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>0.08439982702423547</v>
+        <v>8.3812960985859247E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>0.08677173833627121</v>
+        <v>8.5455475131811065E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>0.08677173833627121</v>
+        <v>8.5455475131811065E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>0.08677173833627121</v>
+        <v>8.5455475131811065E-2</v>
       </c>
       <c r="G13" s="3">
-        <v>0.1204889655798772</v>
+        <v>0.1214114297937261</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>0.1204889655798772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1214114297937261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>1.072426627565779</v>
+        <v>8.9117436555991289E-2</v>
       </c>
       <c r="E14" s="3">
-        <v>1.079051751182224</v>
+        <v>9.9506557793078737E-2</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <v>0.01896553698688131</v>
+        <v>1.72985264747843E-2</v>
       </c>
       <c r="I14" s="3">
-        <v>0.01896553698688131</v>
+        <v>1.72985264747843E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>1.146191767247768</v>
+        <v>1.145574146677365</v>
       </c>
       <c r="K14" s="3">
-        <v>1.146191767247768</v>
+        <v>1.145574146677365</v>
       </c>
       <c r="L14" s="3">
-        <v>1.127226230260887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.1282756202025801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
-        <v>0.08799754293064842</v>
+        <v>8.9460459926561542E-2</v>
       </c>
       <c r="E15" s="3">
-        <v>0.09833400939958981</v>
+        <v>9.5300413283335744E-2</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <v>0.01802561385012095</v>
+        <v>1.7111432919681761E-2</v>
       </c>
       <c r="I15" s="3">
-        <v>0.01802561385012095</v>
+        <v>1.7111432919681761E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>0.1172225933808737</v>
+        <v>0.1136435246880062</v>
       </c>
       <c r="K15" s="3">
-        <v>0.133945654483782</v>
+        <v>0.1303261638857201</v>
       </c>
       <c r="L15" s="3">
-        <v>0.09919697953075277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.6532091768324418E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <v>1.069296535926415</v>
+        <v>1.073799044336196</v>
       </c>
       <c r="E16" s="3">
-        <v>1.077857510726712</v>
+        <v>1.0824890497057771</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>0.0369188392132228</v>
+        <v>3.4466091136688033E-2</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0369188392132228</v>
+        <v>3.4466091136688033E-2</v>
       </c>
       <c r="J16" s="3">
-        <v>2.075035575698707</v>
+        <v>2.1299159073669198</v>
       </c>
       <c r="K16" s="3">
-        <v>2.14210983063317</v>
+        <v>2.1467044708795662</v>
       </c>
       <c r="L16" s="3">
-        <v>2.038116736485484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.0954498162302322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>0.08980313009552859</v>
+        <v>8.8101369220750514E-2</v>
       </c>
       <c r="E17" s="3">
-        <v>0.09130448140450807</v>
+        <v>9.5634073674013192E-2</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>0.018737123530644</v>
+        <v>1.7491675857608229E-2</v>
       </c>
       <c r="I17" s="3">
-        <v>0.018737123530644</v>
+        <v>1.7491675857608229E-2</v>
       </c>
       <c r="J17" s="3">
-        <v>1.095815341786085</v>
+        <v>1.111999316025466</v>
       </c>
       <c r="K17" s="3">
-        <v>1.146191767247768</v>
+        <v>1.145574146677365</v>
       </c>
       <c r="L17" s="3">
-        <v>1.077078218255441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.0945076401678571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>0.09045957568557045</v>
+        <v>8.8371026674930228E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>0.1003605393673891</v>
+        <v>9.6775421345653742E-2</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>0.01840249984170718</v>
+        <v>1.8112204028846789E-2</v>
       </c>
       <c r="I18" s="3">
-        <v>0.01840249984170718</v>
+        <v>1.8112204028846789E-2</v>
       </c>
       <c r="J18" s="3">
-        <v>0.133945654483782</v>
+        <v>0.1303261638857201</v>
       </c>
       <c r="K18" s="3">
-        <v>0.133945654483782</v>
+        <v>0.1303261638857201</v>
       </c>
       <c r="L18" s="3">
-        <v>0.1155431546420748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1122139598568733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>1.074380253212487</v>
+        <v>1.071618685890769</v>
       </c>
       <c r="E19" s="3">
-        <v>1.083814889630604</v>
+        <v>1.0802484024808661</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <v>0.0371557139206498</v>
+        <v>3.5355550734229378E-2</v>
       </c>
       <c r="I19" s="3">
-        <v>0.0371557139206498</v>
+        <v>3.5355550734229378E-2</v>
       </c>
       <c r="J19" s="3">
-        <v>2.108507768712268</v>
+        <v>2.113089291297563</v>
       </c>
       <c r="K19" s="3">
-        <v>2.14210983063317</v>
+        <v>2.1467044708795662</v>
       </c>
       <c r="L19" s="3">
-        <v>2.071352054791618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.077733740563334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
-        <v>0.09290542355710019</v>
+        <v>8.8036988769503777E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.1027582460760374</v>
+        <v>9.6192488561754635E-2</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>0.01844961957527937</v>
+        <v>1.6893317330054169E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>0.01844961957527937</v>
+        <v>1.6893317330054169E-2</v>
       </c>
       <c r="J20" s="3">
-        <v>1.112610376468318</v>
+        <v>1.1287720555448979</v>
       </c>
       <c r="K20" s="3">
-        <v>1.146191767247768</v>
+        <v>1.145574146677365</v>
       </c>
       <c r="L20" s="3">
-        <v>1.094160756893038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.1118787382148441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>1.077436577634533</v>
+        <v>1.0695646930683771</v>
       </c>
       <c r="E21" s="3">
-        <v>1.08280942537765</v>
+        <v>1.0782338370337601</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>0.03739516017034913</v>
+        <v>3.6646844632859103E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>0.03739516017034913</v>
+        <v>3.6646844632859103E-2</v>
       </c>
       <c r="J21" s="3">
-        <v>2.091764853481776</v>
+        <v>2.0795893999300268</v>
       </c>
       <c r="K21" s="3">
-        <v>2.14210983063317</v>
+        <v>2.1467044708795662</v>
       </c>
       <c r="L21" s="3">
-        <v>2.054369693311427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>2.0429425552971678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>0.09312391353854607</v>
+        <v>8.8130400558510819E-2</v>
       </c>
       <c r="E22" s="3">
-        <v>0.1032977367385963</v>
+        <v>9.4030388448204411E-2</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>0.01895101826228155</v>
+        <v>1.8305354495042371E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>0.01895101826228155</v>
+        <v>1.8305354495042371E-2</v>
       </c>
       <c r="J22" s="3">
-        <v>1.129468416112776</v>
+        <v>1.0951036330848161</v>
       </c>
       <c r="K22" s="3">
-        <v>1.146191767247768</v>
+        <v>1.145574146677365</v>
       </c>
       <c r="L22" s="3">
-        <v>1.110517397850495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.0767982785897741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>2.05342335349218</v>
+        <v>1.0757038419615601</v>
       </c>
       <c r="E23" s="3">
-        <v>2.058352129012577</v>
+        <v>1.0787346075224269</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>0.0534864281015958</v>
+        <v>5.2600263243093963E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.0534864281015958</v>
+        <v>5.2600263243093963E-2</v>
       </c>
       <c r="J23" s="3">
-        <v>2.14210983063317</v>
+        <v>2.0963922120463421</v>
       </c>
       <c r="K23" s="3">
-        <v>2.14210983063317</v>
+        <v>2.1467044708795662</v>
       </c>
       <c r="L23" s="3">
-        <v>2.088623402531574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>2.0437919488032481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <v>2.052508998925938</v>
+        <v>2.0525852837956111</v>
       </c>
       <c r="E24" s="3">
-        <v>2.057003614755747</v>
+        <v>2.062738730185691</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <v>0.05516339099277409</v>
+        <v>5.3592021054473762E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.05516339099277409</v>
+        <v>5.3592021054473762E-2</v>
       </c>
       <c r="J24" s="3">
-        <v>2.125330189627507</v>
+        <v>2.1467044708795662</v>
       </c>
       <c r="K24" s="3">
-        <v>2.14210983063317</v>
+        <v>2.1467044708795662</v>
       </c>
       <c r="L24" s="3">
-        <v>2.070166798634733</v>
+        <v>2.0931124498250919</v>
       </c>
     </row>
   </sheetData>

--- a/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqiantong/PycharmProjects/altrios-private/altrios/python/demos/double_track_results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A679A497-B4D7-0948-88AF-E4884130672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="17140" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>container_id</t>
   </si>
@@ -64,64 +58,133 @@
     <t>IC-1-Train-19</t>
   </si>
   <si>
+    <t>IC-1-Train-2</t>
+  </si>
+  <si>
+    <t>IC-1-Train-7</t>
+  </si>
+  <si>
     <t>IC-1-Train-70</t>
   </si>
   <si>
+    <t>IC-1-Train-9</t>
+  </si>
+  <si>
     <t>IC-2-Train-12</t>
   </si>
   <si>
     <t>IC-2-Train-19</t>
   </si>
   <si>
+    <t>IC-2-Train-2</t>
+  </si>
+  <si>
+    <t>IC-2-Train-7</t>
+  </si>
+  <si>
     <t>IC-2-Train-70</t>
   </si>
   <si>
+    <t>IC-2-Train-9</t>
+  </si>
+  <si>
     <t>IC-3-Train-12</t>
   </si>
   <si>
     <t>IC-3-Train-19</t>
   </si>
   <si>
+    <t>IC-3-Train-2</t>
+  </si>
+  <si>
+    <t>IC-3-Train-7</t>
+  </si>
+  <si>
     <t>IC-3-Train-70</t>
   </si>
   <si>
+    <t>IC-3-Train-9</t>
+  </si>
+  <si>
     <t>IC-4-Train-12</t>
   </si>
   <si>
     <t>IC-4-Train-19</t>
   </si>
   <si>
+    <t>IC-4-Train-2</t>
+  </si>
+  <si>
+    <t>IC-4-Train-9</t>
+  </si>
+  <si>
     <t>IC-5-Train-19</t>
   </si>
   <si>
+    <t>IC-5-Train-9</t>
+  </si>
+  <si>
     <t>OC-1-Train-12</t>
   </si>
   <si>
     <t>OC-1-Train-19</t>
   </si>
   <si>
+    <t>OC-1-Train-2</t>
+  </si>
+  <si>
+    <t>OC-1-Train-7</t>
+  </si>
+  <si>
     <t>OC-1-Train-70</t>
   </si>
   <si>
+    <t>OC-1-Train-9</t>
+  </si>
+  <si>
     <t>OC-2-Train-12</t>
   </si>
   <si>
     <t>OC-2-Train-19</t>
   </si>
   <si>
+    <t>OC-2-Train-2</t>
+  </si>
+  <si>
+    <t>OC-2-Train-7</t>
+  </si>
+  <si>
     <t>OC-2-Train-70</t>
   </si>
   <si>
+    <t>OC-2-Train-9</t>
+  </si>
+  <si>
     <t>OC-3-Train-12</t>
   </si>
   <si>
+    <t>OC-3-Train-2</t>
+  </si>
+  <si>
+    <t>OC-3-Train-7</t>
+  </si>
+  <si>
     <t>OC-3-Train-70</t>
   </si>
   <si>
     <t>OC-4-Train-12</t>
   </si>
   <si>
+    <t>OC-4-Train-2</t>
+  </si>
+  <si>
+    <t>OC-4-Train-7</t>
+  </si>
+  <si>
     <t>OC-4-Train-70</t>
+  </si>
+  <si>
+    <t>OC-5-Train-7</t>
   </si>
   <si>
     <t>OC-5-Train-70</t>
@@ -130,12 +193,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000;[Red]-#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,78 +242,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="3">
+    <dxf/>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]-#,##0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:L24" totalsRowShown="0">
-  <autoFilter ref="A1:L24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L47" totalsRowShown="0">
+  <autoFilter ref="A1:L47"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="container_id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="train_arrival" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="crane_unload" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="hostler_pickup" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="hostler_dropoff" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="truck_pickup" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="truck_exit" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="truck_arrival" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="truck_dropoff" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="crane_load" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="train_depart" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="container_processing_time" dataDxfId="0"/>
+    <tableColumn id="1" name="container_id" dataDxfId="0"/>
+    <tableColumn id="2" name="train_arrival" dataDxfId="1"/>
+    <tableColumn id="3" name="crane_unload" dataDxfId="2"/>
+    <tableColumn id="4" name="hostler_pickup" dataDxfId="2"/>
+    <tableColumn id="5" name="hostler_dropoff" dataDxfId="2"/>
+    <tableColumn id="6" name="truck_pickup" dataDxfId="2"/>
+    <tableColumn id="7" name="truck_exit" dataDxfId="2"/>
+    <tableColumn id="8" name="truck_arrival" dataDxfId="2"/>
+    <tableColumn id="9" name="truck_dropoff" dataDxfId="2"/>
+    <tableColumn id="10" name="crane_load" dataDxfId="2"/>
+    <tableColumn id="11" name="train_depart" dataDxfId="2"/>
+    <tableColumn id="12" name="container_processing_time" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +317,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -322,7 +351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,10 +385,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,17 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -589,29 +613,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.016941575650574</v>
+        <v>1.016873513908084</v>
       </c>
       <c r="D2" s="3">
-        <v>1.0211697527762269</v>
+        <v>1.020247263089148</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0674635450801631</v>
+        <v>1.067407280291607</v>
       </c>
       <c r="F2" s="3">
-        <v>1.0674635450801631</v>
+        <v>1.067211566350468</v>
       </c>
       <c r="G2" s="3">
-        <v>1.101127077509475</v>
+        <v>1.102042108829492</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
-        <v>0.1011270775094746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1020421088294923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -619,149 +643,149 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1.68729634030843E-2</v>
+        <v>0.01691688245188639</v>
       </c>
       <c r="D3" s="3">
-        <v>2.099056313116112E-2</v>
+        <v>0.02029382100892664</v>
       </c>
       <c r="E3" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>0.08379308455863912</v>
       </c>
       <c r="F3" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>0.08379308455863912</v>
       </c>
       <c r="G3" s="3">
-        <v>0.1196479796638774</v>
+        <v>0.1183216021166553</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>0.1196479796638774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1183216021166553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>2.0168124356167429</v>
+        <v>1.016843084957061</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0208570276172759</v>
+        <v>1.01883923999772</v>
       </c>
       <c r="E4" s="3">
-        <v>2.0504637170818172</v>
+        <v>1.067211566350468</v>
       </c>
       <c r="F4" s="3">
-        <v>2.0504637170818172</v>
+        <v>1.067211566350468</v>
       </c>
       <c r="G4" s="3">
-        <v>2.085339213634446</v>
+        <v>1.102077047778049</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>8.5339213634445965E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1020770477780493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>1.033874095738335</v>
+        <v>2.016917394617405</v>
       </c>
       <c r="D5" s="3">
-        <v>1.0357741574353769</v>
+        <v>2.020192389867852</v>
       </c>
       <c r="E5" s="3">
-        <v>1.0674635450801631</v>
+        <v>2.050523184905274</v>
       </c>
       <c r="F5" s="3">
-        <v>1.0674635450801631</v>
+        <v>2.050523184905274</v>
       </c>
       <c r="G5" s="3">
-        <v>1.102410655696977</v>
+        <v>2.086006885617866</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
-        <v>0.1024106556969766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.0860068856178664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>3.3549749322315858E-2</v>
+        <v>2.016869193711181</v>
       </c>
       <c r="D6" s="3">
-        <v>3.8546228425604907E-2</v>
+        <v>2.018868376988432</v>
       </c>
       <c r="E6" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>2.050526704117479</v>
       </c>
       <c r="F6" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>2.050523184905274</v>
       </c>
       <c r="G6" s="3">
-        <v>0.1178609685099528</v>
+        <v>2.084449394642727</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>0.1178609685099528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.08444939464272672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>2.033621775270201</v>
+        <v>0.01686034961128433</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0354347666846548</v>
+        <v>0.01916003372064625</v>
       </c>
       <c r="E7" s="3">
-        <v>2.0504637170818172</v>
+        <v>0.08435088258502069</v>
       </c>
       <c r="F7" s="3">
-        <v>2.0504637170818172</v>
+        <v>0.08379308455863912</v>
       </c>
       <c r="G7" s="3">
-        <v>2.0846494765583299</v>
+        <v>0.1183582178679622</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>8.4649476558329884E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1183582178679622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -769,29 +793,29 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1.050622032989559</v>
+        <v>1.033666434782857</v>
       </c>
       <c r="D8" s="3">
-        <v>1.053581316750045</v>
+        <v>1.035098579266079</v>
       </c>
       <c r="E8" s="3">
-        <v>1.0674635450801631</v>
+        <v>1.067211566350468</v>
       </c>
       <c r="F8" s="3">
-        <v>1.0674635450801631</v>
+        <v>1.067211566350468</v>
       </c>
       <c r="G8" s="3">
-        <v>1.1029804200570199</v>
+        <v>1.101886292305903</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
-        <v>0.10298042005702029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.101886292305903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -799,119 +823,119 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>5.0465197998797243E-2</v>
+        <v>0.0337499156651397</v>
       </c>
       <c r="D9" s="3">
-        <v>5.2558482452216983E-2</v>
+        <v>0.03829569618257192</v>
       </c>
       <c r="E9" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>0.08435088258502069</v>
       </c>
       <c r="F9" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>0.08379308455863912</v>
       </c>
       <c r="G9" s="3">
-        <v>0.1195414541106945</v>
+        <v>0.117751348837814</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>0.1195414541106945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.117751348837814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>2.0504637170818172</v>
+        <v>1.033706288604088</v>
       </c>
       <c r="D10" s="3">
-        <v>2.0534072043455249</v>
+        <v>1.03597011840194</v>
       </c>
       <c r="E10" s="3">
-        <v>2.0534072043455249</v>
+        <v>1.067407280291607</v>
       </c>
       <c r="F10" s="3">
-        <v>2.0534072043455249</v>
+        <v>1.067407280291607</v>
       </c>
       <c r="G10" s="3">
-        <v>2.0878697843224971</v>
+        <v>1.102478328451332</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>8.7869784322497146E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.102478328451332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>1.0674635450801631</v>
+        <v>2.03375684733517</v>
       </c>
       <c r="D11" s="3">
-        <v>1.069885867143429</v>
+        <v>2.036713024704361</v>
       </c>
       <c r="E11" s="3">
-        <v>1.069885867143429</v>
+        <v>2.050523184905274</v>
       </c>
       <c r="F11" s="3">
-        <v>1.069885867143429</v>
+        <v>2.050526704117479</v>
       </c>
       <c r="G11" s="3">
-        <v>1.1034143241170911</v>
+        <v>2.086331247887632</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>0.1034143241170906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.08633124788763169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>6.7141267945433153E-2</v>
+        <v>2.033723296987062</v>
       </c>
       <c r="D12" s="3">
-        <v>6.8708020257644803E-2</v>
+        <v>2.036282153595756</v>
       </c>
       <c r="E12" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>2.050526704117479</v>
       </c>
       <c r="F12" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>2.050526704117479</v>
       </c>
       <c r="G12" s="3">
-        <v>0.11988879445814581</v>
+        <v>2.085292977914772</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>0.11988879445814581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.08529297791477175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -919,357 +943,1017 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>8.3812960985859247E-2</v>
+        <v>0.03354480326455157</v>
       </c>
       <c r="D13" s="3">
-        <v>8.5455475131811065E-2</v>
+        <v>0.03621239025759555</v>
       </c>
       <c r="E13" s="3">
-        <v>8.5455475131811065E-2</v>
+        <v>0.08379308455863912</v>
       </c>
       <c r="F13" s="3">
-        <v>8.5455475131811065E-2</v>
+        <v>0.08379308455863912</v>
       </c>
       <c r="G13" s="3">
-        <v>0.1214114297937261</v>
+        <v>0.1174950458112589</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>0.1214114297937261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1174950458112589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.050410908666731</v>
+      </c>
       <c r="D14" s="3">
-        <v>8.9117436555991289E-2</v>
+        <v>1.053037167253801</v>
       </c>
       <c r="E14" s="3">
-        <v>9.9506557793078737E-2</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>1.72985264747843E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1.72985264747843E-2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.145574146677365</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.145574146677365</v>
-      </c>
+        <v>1.067407280291607</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.067407280291607</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.10171898019022</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3">
-        <v>1.1282756202025801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1017189801902196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.05063491087757555</v>
+      </c>
       <c r="D15" s="3">
-        <v>8.9460459926561542E-2</v>
+        <v>0.05500942330667509</v>
       </c>
       <c r="E15" s="3">
-        <v>9.5300413283335744E-2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>1.7111432919681761E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1.7111432919681761E-2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.1136435246880062</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.1303261638857201</v>
-      </c>
+        <v>0.08435088258502069</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.08435088258502069</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.1176908793545453</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3">
-        <v>9.6532091768324418E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1176908793545453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.050499274064496</v>
+      </c>
       <c r="D16" s="3">
-        <v>1.073799044336196</v>
+        <v>1.05318788268185</v>
       </c>
       <c r="E16" s="3">
-        <v>1.0824890497057771</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>3.4466091136688033E-2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3.4466091136688033E-2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2.1299159073669198</v>
-      </c>
-      <c r="K16" s="3">
-        <v>2.1467044708795662</v>
-      </c>
+        <v>1.067211566350468</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.067407280291607</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.101122878494783</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3">
-        <v>2.0954498162302322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1011228784947831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.050523184905274</v>
+      </c>
       <c r="D17" s="3">
-        <v>8.8101369220750514E-2</v>
+        <v>2.052109009774206</v>
       </c>
       <c r="E17" s="3">
-        <v>9.5634073674013192E-2</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>1.7491675857608229E-2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1.7491675857608229E-2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1.111999316025466</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1.145574146677365</v>
-      </c>
+        <v>2.052109009774206</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.052109009774206</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.086824089811548</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3">
-        <v>1.0945076401678571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.08682408981154843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.050526704117479</v>
+      </c>
       <c r="D18" s="3">
-        <v>8.8371026674930228E-2</v>
+        <v>2.055768467843704</v>
       </c>
       <c r="E18" s="3">
-        <v>9.6775421345653742E-2</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>1.8112204028846789E-2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1.8112204028846789E-2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.1303261638857201</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.1303261638857201</v>
-      </c>
+        <v>2.055768467843704</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.055768467843704</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.090150534579561</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <v>0.1122139598568733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.09015053457956146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.05022644419514632</v>
+      </c>
       <c r="D19" s="3">
-        <v>1.071618685890769</v>
+        <v>0.05503065732697267</v>
       </c>
       <c r="E19" s="3">
-        <v>1.0802484024808661</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
-        <v>3.5355550734229378E-2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3.5355550734229378E-2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2.113089291297563</v>
-      </c>
-      <c r="K19" s="3">
-        <v>2.1467044708795662</v>
-      </c>
+        <v>0.08379308455863912</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.08435088258502069</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.1203378034573561</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3">
-        <v>2.077733740563334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1203378034573561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.067211566350468</v>
+      </c>
       <c r="D20" s="3">
-        <v>8.8036988769503777E-2</v>
+        <v>1.069705640035455</v>
       </c>
       <c r="E20" s="3">
-        <v>9.6192488561754635E-2</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>1.6893317330054169E-2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1.6893317330054169E-2</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1.1287720555448979</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.145574146677365</v>
-      </c>
+        <v>1.069705640035455</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.069705640035455</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.137180980344543</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3">
-        <v>1.1118787382148441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.137180980344543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.06745942015733679</v>
+      </c>
       <c r="D21" s="3">
-        <v>1.0695646930683771</v>
+        <v>0.07236761397418397</v>
       </c>
       <c r="E21" s="3">
-        <v>1.0782338370337601</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>3.6646844632859103E-2</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3.6646844632859103E-2</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2.0795893999300268</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2.1467044708795662</v>
-      </c>
+        <v>0.08435088258502069</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.08435088258502069</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.1522053377894348</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3">
-        <v>2.0429425552971678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1522053377894348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.067407280291607</v>
+      </c>
       <c r="D22" s="3">
-        <v>8.8130400558510819E-2</v>
+        <v>1.069652940021374</v>
       </c>
       <c r="E22" s="3">
-        <v>9.4030388448204411E-2</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>1.8305354495042371E-2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1.8305354495042371E-2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1.0951036330848161</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1.145574146677365</v>
-      </c>
+        <v>1.069652940021374</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.069652940021374</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.135659809119461</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3">
-        <v>1.0767982785897741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1356598091194612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.06692196839630687</v>
+      </c>
       <c r="D23" s="3">
-        <v>1.0757038419615601</v>
+        <v>0.07140081215993557</v>
       </c>
       <c r="E23" s="3">
-        <v>1.0787346075224269</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>5.2600263243093963E-2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5.2600263243093963E-2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2.0963922120463421</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2.1467044708795662</v>
-      </c>
+        <v>0.08379308455863912</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.08435088258502069</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.1520636049147532</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3">
-        <v>2.0437919488032481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.1520636049147532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.08435088258502069</v>
+      </c>
       <c r="D24" s="3">
-        <v>2.0525852837956111</v>
+        <v>0.08657649561044764</v>
       </c>
       <c r="E24" s="3">
-        <v>2.062738730185691</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>5.3592021054473762E-2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5.3592021054473762E-2</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2.1467044708795662</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2.1467044708795662</v>
-      </c>
+        <v>0.08657649561044764</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.08657649561044764</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.1528928887643678</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3">
-        <v>2.0931124498250919</v>
-      </c>
+        <v>0.1528928887643678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.08379308455863912</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.08513476872343095</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.08513476872343095</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.08513476872343095</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.1530900353096588</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
+        <v>0.1530900353096588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>0.0929329860516675</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.09695786896846301</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>0.01821466055201301</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.01821466055201301</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1.108210038971222</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.141826312295729</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.089995378419208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>0.08719647282301074</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.08961476586201952</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>0.01730605592149003</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.01730605592149003</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.1138513678750623</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.1307564544987258</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.09654531195357222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>0.09239528007284827</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.0991674650064895</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>0.03585796213636346</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.03585796213636346</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1.101977188713221</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.152461798097973</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.066119226576858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>1.077189227286168</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.080214488360125</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>0.07365382960280306</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.07365382960280306</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.078240235583347</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2.145336588917834</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2.004586405980544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>1.069481514602178</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.072870475105233</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>0.05552204188122044</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.05552204188122044</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>0.08695901197123988</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.0950259625100751</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>0.01796221828889297</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.01796221828889297</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.1286429149517872</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.1286429149517872</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.1106806966628943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>0.08879645422378553</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.09141959425089002</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>0.01686055333473982</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.01686055333473982</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1.091420268807463</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.141826312295729</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1.074559715472724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <v>0.08864511347525508</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.09514974701486127</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>0.01691920921352455</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.01691920921352455</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.1307564544987258</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.1307564544987258</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.1138372452852013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <v>0.0949883300909708</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.1009554922898454</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>0.03607648165741106</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.03607648165741106</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1.118759611919356</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1.152461798097973</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1.082683130261945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>2.055720295090504</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.061306304958072</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>0.08759803574699898</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.08759803574699898</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2.145336588917834</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2.145336588917834</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2.057738553170835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>1.070288465651255</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.074623859507734</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>0.05521756777462221</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.05521756777462221</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>0.08597995619964235</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.09248037163566206</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>0.01826763430124363</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.01826763430124363</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.1118756763970371</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.1286429149517872</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.09360804209579343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>0.09277682800664966</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.1001930936365044</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>0.03516570634321792</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.03516570634321792</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.141826312295729</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1.141826312295729</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.106660605952511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>1.072955878419889</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.08215972725282</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>0.03662339562203461</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.03662339562203461</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1.152461798097973</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1.152461798097973</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.115838402475938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>2.051967738368845</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2.055270519703118</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>0.08856627424747465</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.08856627424747465</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2.094930336984507</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2.145336588917834</v>
+      </c>
+      <c r="L40" s="3">
+        <v>2.006364062737032</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>1.068389837872934</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.077549798193846</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>0.07095409816221696</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.07095409816221696</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
+        <v>0.0916447665903878</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.09834965435982787</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>0.03435948518691722</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.03435948518691722</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1.124974763297772</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.141826312295729</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.090615278110855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>1.069045680038937</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.078421813292713</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>0.03666305636005585</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.03666305636005585</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.135642028550626</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.152461798097973</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.09897897219057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <v>2.051563027429238</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2.056086676990892</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>0.09058116696256627</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.09058116696256627</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2.111845837553968</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2.145336588917834</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2.021264670591402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>1.073815441961502</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.077411605582837</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>0.07088963979919598</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.07088963979919598</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3">
+        <v>2.05177287937635</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2.056762903204603</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>0.09126431263531498</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.09126431263531498</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2.128655264984347</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.145336588917834</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2.037390952349032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
+        <v>1.074907853347385</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.085308634748543</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>0.07329069315265062</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.07329069315265062</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>container_id</t>
   </si>
@@ -28,12 +28,12 @@
     <t>hostler_pickup</t>
   </si>
   <si>
+    <t>truck_pickup</t>
+  </si>
+  <si>
     <t>hostler_dropoff</t>
   </si>
   <si>
-    <t>truck_pickup</t>
-  </si>
-  <si>
     <t>truck_exit</t>
   </si>
   <si>
@@ -58,15 +58,6 @@
     <t>IC-1-Train-19</t>
   </si>
   <si>
-    <t>IC-1-Train-2</t>
-  </si>
-  <si>
-    <t>IC-1-Train-7</t>
-  </si>
-  <si>
-    <t>IC-1-Train-70</t>
-  </si>
-  <si>
     <t>IC-1-Train-9</t>
   </si>
   <si>
@@ -76,15 +67,6 @@
     <t>IC-2-Train-19</t>
   </si>
   <si>
-    <t>IC-2-Train-2</t>
-  </si>
-  <si>
-    <t>IC-2-Train-7</t>
-  </si>
-  <si>
-    <t>IC-2-Train-70</t>
-  </si>
-  <si>
     <t>IC-2-Train-9</t>
   </si>
   <si>
@@ -94,36 +76,12 @@
     <t>IC-3-Train-19</t>
   </si>
   <si>
-    <t>IC-3-Train-2</t>
-  </si>
-  <si>
-    <t>IC-3-Train-7</t>
-  </si>
-  <si>
-    <t>IC-3-Train-70</t>
-  </si>
-  <si>
     <t>IC-3-Train-9</t>
   </si>
   <si>
     <t>IC-4-Train-12</t>
   </si>
   <si>
-    <t>IC-4-Train-19</t>
-  </si>
-  <si>
-    <t>IC-4-Train-2</t>
-  </si>
-  <si>
-    <t>IC-4-Train-9</t>
-  </si>
-  <si>
-    <t>IC-5-Train-19</t>
-  </si>
-  <si>
-    <t>IC-5-Train-9</t>
-  </si>
-  <si>
     <t>OC-1-Train-12</t>
   </si>
   <si>
@@ -163,6 +121,9 @@
     <t>OC-3-Train-12</t>
   </si>
   <si>
+    <t>OC-3-Train-19</t>
+  </si>
+  <si>
     <t>OC-3-Train-2</t>
   </si>
   <si>
@@ -172,9 +133,15 @@
     <t>OC-3-Train-70</t>
   </si>
   <si>
+    <t>OC-3-Train-9</t>
+  </si>
+  <si>
     <t>OC-4-Train-12</t>
   </si>
   <si>
+    <t>OC-4-Train-19</t>
+  </si>
+  <si>
     <t>OC-4-Train-2</t>
   </si>
   <si>
@@ -184,10 +151,19 @@
     <t>OC-4-Train-70</t>
   </si>
   <si>
+    <t>OC-4-Train-9</t>
+  </si>
+  <si>
+    <t>OC-5-Train-19</t>
+  </si>
+  <si>
     <t>OC-5-Train-7</t>
   </si>
   <si>
     <t>OC-5-Train-70</t>
+  </si>
+  <si>
+    <t>OC-5-Train-9</t>
   </si>
 </sst>
 </file>
@@ -256,15 +232,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L47" totalsRowShown="0">
-  <autoFilter ref="A1:L47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L39" totalsRowShown="0">
+  <autoFilter ref="A1:L39"/>
   <tableColumns count="12">
     <tableColumn id="1" name="container_id" dataDxfId="0"/>
     <tableColumn id="2" name="train_arrival" dataDxfId="1"/>
     <tableColumn id="3" name="crane_unload" dataDxfId="2"/>
     <tableColumn id="4" name="hostler_pickup" dataDxfId="2"/>
-    <tableColumn id="5" name="hostler_dropoff" dataDxfId="2"/>
-    <tableColumn id="6" name="truck_pickup" dataDxfId="2"/>
+    <tableColumn id="5" name="truck_pickup" dataDxfId="2"/>
+    <tableColumn id="6" name="hostler_dropoff" dataDxfId="2"/>
     <tableColumn id="7" name="truck_exit" dataDxfId="2"/>
     <tableColumn id="8" name="truck_arrival" dataDxfId="2"/>
     <tableColumn id="9" name="truck_dropoff" dataDxfId="2"/>
@@ -561,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,27 +589,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.016873513908084</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.020247263089148</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.067407280291607</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.067211566350468</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.102042108829492</v>
-      </c>
+        <v>1.016800814049609</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3">
-        <v>0.1020421088294923</v>
-      </c>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -643,26 +609,26 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.01691688245188639</v>
+        <v>0.01692203885466631</v>
       </c>
       <c r="D3" s="3">
-        <v>0.02029382100892664</v>
+        <v>0.01859535576220158</v>
       </c>
       <c r="E3" s="3">
-        <v>0.08379308455863912</v>
+        <v>0.05030423540480082</v>
       </c>
       <c r="F3" s="3">
-        <v>0.08379308455863912</v>
+        <v>0.05051904449878039</v>
       </c>
       <c r="G3" s="3">
-        <v>0.1183216021166553</v>
+        <v>0.08545814452443803</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>0.1183216021166553</v>
+        <v>0.08545814452443803</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -670,29 +636,29 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1.016843084957061</v>
+        <v>0.01685507562774423</v>
       </c>
       <c r="D4" s="3">
-        <v>1.01883923999772</v>
+        <v>0.0182790356244188</v>
       </c>
       <c r="E4" s="3">
-        <v>1.067211566350468</v>
+        <v>0.05030423540480082</v>
       </c>
       <c r="F4" s="3">
-        <v>1.067211566350468</v>
+        <v>0.05030423540480082</v>
       </c>
       <c r="G4" s="3">
-        <v>1.102077047778049</v>
+        <v>0.08587474435964237</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>0.1020770477780493</v>
+        <v>0.08587474435964237</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -700,59 +666,49 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2.016917394617405</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.020192389867852</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.050523184905274</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.050523184905274</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2.086006885617866</v>
-      </c>
+        <v>1.033509713892093</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <v>0.0860068856178664</v>
-      </c>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>2.016869193711181</v>
+        <v>0.03376961987574197</v>
       </c>
       <c r="D6" s="3">
-        <v>2.018868376988432</v>
+        <v>0.05030423540480082</v>
       </c>
       <c r="E6" s="3">
-        <v>2.050526704117479</v>
+        <v>0.05051904449878039</v>
       </c>
       <c r="F6" s="3">
-        <v>2.050523184905274</v>
+        <v>0.05030423540480082</v>
       </c>
       <c r="G6" s="3">
-        <v>2.084449394642727</v>
+        <v>0.08654253549490981</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>0.08444939464272672</v>
+        <v>0.08654253549490981</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -763,26 +719,26 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0.01686034961128433</v>
+        <v>0.03352693033442297</v>
       </c>
       <c r="D7" s="3">
-        <v>0.01916003372064625</v>
+        <v>0.03443699996596532</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08435088258502069</v>
+        <v>0.05051904449878039</v>
       </c>
       <c r="F7" s="3">
-        <v>0.08379308455863912</v>
+        <v>0.05051904449878039</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1183582178679622</v>
+        <v>0.08508560094881962</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>0.1183582178679622</v>
+        <v>0.08508560094881962</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -793,27 +749,17 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1.033666434782857</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.035098579266079</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.067211566350468</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.067211566350468</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.101886292305903</v>
-      </c>
+        <v>1.050391250056053</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>0.101886292305903</v>
-      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -823,26 +769,26 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0.0337499156651397</v>
+        <v>0.05051904449878039</v>
       </c>
       <c r="D9" s="3">
-        <v>0.03829569618257192</v>
+        <v>0.05125407142908645</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08435088258502069</v>
+        <v>0.05125407142908645</v>
       </c>
       <c r="F9" s="3">
-        <v>0.08379308455863912</v>
+        <v>0.05125407142908645</v>
       </c>
       <c r="G9" s="3">
-        <v>0.117751348837814</v>
+        <v>0.08522275122011126</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>0.117751348837814</v>
+        <v>0.08522275122011126</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -850,29 +796,29 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>1.033706288604088</v>
+        <v>0.05030423540480082</v>
       </c>
       <c r="D10" s="3">
-        <v>1.03597011840194</v>
+        <v>0.05146327232893298</v>
       </c>
       <c r="E10" s="3">
-        <v>1.067407280291607</v>
+        <v>0.05146327232893298</v>
       </c>
       <c r="F10" s="3">
-        <v>1.067407280291607</v>
+        <v>0.05146327232893298</v>
       </c>
       <c r="G10" s="3">
-        <v>1.102478328451332</v>
+        <v>0.08495663343590418</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>0.102478328451332</v>
+        <v>0.08495663343590418</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -880,449 +826,345 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>2.03375684733517</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2.036713024704361</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.050523184905274</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2.050526704117479</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2.086331247887632</v>
-      </c>
+        <v>1.067142241306944</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>0.08633124788763169</v>
-      </c>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.033723296987062</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>2.036282153595756</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.050526704117479</v>
-      </c>
+        <v>0.06628758061348948</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>2.050526704117479</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2.085292977914772</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>0.06664135760123224</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>0.03811857288578809</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.03811857288578809</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>0.08529297791477175</v>
-      </c>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.03354480326455157</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>0.03621239025759555</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.08379308455863912</v>
-      </c>
+        <v>0.0513466269245555</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>0.08379308455863912</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.1174950458112589</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+        <v>0.05347381717524045</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>0.01709003499068657</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.01709003499068657</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.1046203915545045</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.1383441618260136</v>
+      </c>
       <c r="L13" s="3">
-        <v>0.1174950458112589</v>
+        <v>0.0875303565638179</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.050410908666731</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.053037167253801</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.067407280291607</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.067407280291607</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.10171898019022</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>0.05540388480133785</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.05540388480133785</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>0.1017189801902196</v>
-      </c>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.05063491087757555</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.05500942330667509</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.08435088258502069</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.08435088258502069</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.1176908793545453</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>0.07405173812733513</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.07405173812733513</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>0.1176908793545453</v>
-      </c>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.050499274064496</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.05318788268185</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.067211566350468</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.067407280291607</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.101122878494783</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>0.06861632723434764</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.06861632723434764</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>0.1011228784947831</v>
-      </c>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2.050523184905274</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>2.052109009774206</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.052109009774206</v>
-      </c>
+        <v>0.05273160985195426</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>2.052109009774206</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2.086824089811548</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>0.05329786722223058</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>0.01911613067754936</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.01911613067754936</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <v>0.08682408981154843</v>
-      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.050526704117479</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>2.055768467843704</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.055768467843704</v>
-      </c>
+        <v>0.07074497671895393</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <v>2.055768467843704</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2.090150534579561</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>0.0711640376078619</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>0.03815772662660934</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.03815772662660934</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <v>0.09015053457956146</v>
-      </c>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.05022644419514632</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>0.05503065732697267</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.08379308455863912</v>
-      </c>
+        <v>0.05175034767178005</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <v>0.08435088258502069</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.1203378034573561</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+        <v>0.0529704367844372</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>0.01892682787083259</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.01892682787083259</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.07095474562095364</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.1383441618260136</v>
+      </c>
       <c r="L19" s="3">
-        <v>0.1203378034573561</v>
+        <v>0.05202791775012105</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.067211566350468</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.069705640035455</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.069705640035455</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.069705640035455</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1.137180980344543</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>0.057348069772431</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.057348069772431</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <v>0.137180980344543</v>
-      </c>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.06745942015733679</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.07236761397418397</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.08435088258502069</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.08435088258502069</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.1522053377894348</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>0.08565574102710721</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.08565574102710721</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>0.1522053377894348</v>
-      </c>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.067407280291607</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.069652940021374</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.069652940021374</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.069652940021374</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1.135659809119461</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>0.07191162519589622</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.07191162519589622</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>0.1356598091194612</v>
-      </c>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.06692196839630687</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>0.07140081215993557</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.08379308455863912</v>
-      </c>
+        <v>0.05349334184713703</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <v>0.08435088258502069</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.1520636049147532</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+        <v>0.05468547571932831</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>0.03452757664317756</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.03452757664317756</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <v>0.1520636049147532</v>
-      </c>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.08435088258502069</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.08657649561044764</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.08657649561044764</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.08657649561044764</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.1528928887643678</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>0.05184739065936667</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.05184739065936667</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <v>0.1528928887643678</v>
-      </c>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.08379308455863912</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>0.08513476872343095</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.08513476872343095</v>
-      </c>
+        <v>0.05244673726284549</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>0.08513476872343095</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.1530900353096588</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+        <v>0.05398638641263626</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>0.01857799905725679</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.01857799905725679</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.1215286209485482</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.1383441618260136</v>
+      </c>
       <c r="L25" s="3">
-        <v>0.1530900353096588</v>
+        <v>0.1029506218912914</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1331,29 +1173,19 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>0.0929329860516675</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.09695786896846301</v>
-      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>0.01821466055201301</v>
+        <v>0.05525438339209728</v>
       </c>
       <c r="I26" s="3">
-        <v>0.01821466055201301</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1.108210038971222</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1.141826312295729</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1.089995378419208</v>
-      </c>
+        <v>0.05525438339209728</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
@@ -1361,29 +1193,19 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>0.08719647282301074</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.08961476586201952</v>
-      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>0.01730605592149003</v>
+        <v>0.08876846977449541</v>
       </c>
       <c r="I27" s="3">
-        <v>0.01730605592149003</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0.1138513678750623</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.1307564544987258</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.09654531195357222</v>
-      </c>
+        <v>0.08876846977449541</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
@@ -1391,29 +1213,19 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <v>0.09239528007284827</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.0991674650064895</v>
-      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>0.03585796213636346</v>
+        <v>0.07368388863079767</v>
       </c>
       <c r="I28" s="3">
-        <v>0.03585796213636346</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1.101977188713221</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1.152461798097973</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1.066119226576858</v>
-      </c>
+        <v>0.07368388863079767</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
@@ -1422,28 +1234,22 @@
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>1.077189227286168</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1.080214488360125</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>0.05428743198301672</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>0.05584050514417668</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>0.07365382960280306</v>
+        <v>0.03580980554614442</v>
       </c>
       <c r="I29" s="3">
-        <v>0.07365382960280306</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2.078240235583347</v>
-      </c>
-      <c r="K29" s="3">
-        <v>2.145336588917834</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2.004586405980544</v>
-      </c>
+        <v>0.03580980554614442</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
@@ -1451,19 +1257,15 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3">
-        <v>1.069481514602178</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1.072870475105233</v>
-      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>0.05552204188122044</v>
+        <v>0.05345231844492895</v>
       </c>
       <c r="I30" s="3">
-        <v>0.05552204188122044</v>
+        <v>0.05345231844492895</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1476,27 +1278,27 @@
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>0.08695901197123988</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.0950259625100751</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>0.05160346635026589</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>0.05330738032538453</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <v>0.01796221828889297</v>
+        <v>0.01740136870098069</v>
       </c>
       <c r="I31" s="3">
-        <v>0.01796221828889297</v>
+        <v>0.01740136870098069</v>
       </c>
       <c r="J31" s="3">
-        <v>0.1286429149517872</v>
+        <v>0.0878121112084097</v>
       </c>
       <c r="K31" s="3">
-        <v>0.1286429149517872</v>
+        <v>0.1383441618260136</v>
       </c>
       <c r="L31" s="3">
-        <v>0.1106806966628943</v>
+        <v>0.07041074250742901</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1505,29 +1307,19 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3">
-        <v>0.08879645422378553</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.09141959425089002</v>
-      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <v>0.01686055333473982</v>
+        <v>0.05539301274072281</v>
       </c>
       <c r="I32" s="3">
-        <v>0.01686055333473982</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1.091420268807463</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1.141826312295729</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1.074559715472724</v>
-      </c>
+        <v>0.05539301274072281</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
@@ -1535,29 +1327,19 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <v>0.08864511347525508</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.09514974701486127</v>
-      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <v>0.01691920921352455</v>
+        <v>0.09079241644602147</v>
       </c>
       <c r="I33" s="3">
-        <v>0.01691920921352455</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.1307564544987258</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.1307564544987258</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0.1138372452852013</v>
-      </c>
+        <v>0.09079241644602147</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
@@ -1565,29 +1347,19 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3">
-        <v>0.0949883300909708</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.1009554922898454</v>
-      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <v>0.03607648165741106</v>
+        <v>0.07242600939647925</v>
       </c>
       <c r="I34" s="3">
-        <v>0.03607648165741106</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1.118759611919356</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1.152461798097973</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1.082683130261945</v>
-      </c>
+        <v>0.07242600939647925</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
@@ -1596,28 +1368,22 @@
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>2.055720295090504</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2.061306304958072</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>0.05901218647039075</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>0.06105612188491278</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <v>0.08759803574699898</v>
+        <v>0.0367218645964038</v>
       </c>
       <c r="I35" s="3">
-        <v>0.08759803574699898</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2.145336588917834</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2.145336588917834</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2.057738553170835</v>
-      </c>
+        <v>0.0367218645964038</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
@@ -1626,22 +1392,28 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>1.070288465651255</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1.074623859507734</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>0.05217491133478681</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <v>0.05427592271353972</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <v>0.05521756777462221</v>
+        <v>0.01901351975458247</v>
       </c>
       <c r="I36" s="3">
-        <v>0.05521756777462221</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+        <v>0.01901351975458247</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.1383441618260136</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.1383441618260136</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.1193306420714311</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
@@ -1649,29 +1421,19 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>0.08597995619964235</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.09248037163566206</v>
-      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <v>0.01826763430124363</v>
+        <v>0.09084393722546413</v>
       </c>
       <c r="I37" s="3">
-        <v>0.01826763430124363</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0.1118756763970371</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.1286429149517872</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.09360804209579343</v>
-      </c>
+        <v>0.09084393722546413</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
@@ -1679,29 +1441,19 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3">
-        <v>0.09277682800664966</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.1001930936365044</v>
-      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <v>0.03516570634321792</v>
+        <v>0.07425362802569684</v>
       </c>
       <c r="I38" s="3">
-        <v>0.03516570634321792</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1.141826312295729</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1.141826312295729</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1.106660605952511</v>
-      </c>
+        <v>0.07425362802569684</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
@@ -1710,250 +1462,22 @@
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <v>1.072955878419889</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.08215972725282</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>0.07479430059264448</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <v>0.07710915620351348</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>0.03662339562203461</v>
+        <v>0.03826837089317613</v>
       </c>
       <c r="I39" s="3">
-        <v>0.03662339562203461</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1.152461798097973</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1.152461798097973</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1.115838402475938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <v>2.051967738368845</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2.055270519703118</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <v>0.08856627424747465</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.08856627424747465</v>
-      </c>
-      <c r="J40" s="3">
-        <v>2.094930336984507</v>
-      </c>
-      <c r="K40" s="3">
-        <v>2.145336588917834</v>
-      </c>
-      <c r="L40" s="3">
-        <v>2.006364062737032</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>1.068389837872934</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1.077549798193846</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>0.07095409816221696</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0.07095409816221696</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3">
-        <v>0.0916447665903878</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.09834965435982787</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>0.03435948518691722</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0.03435948518691722</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1.124974763297772</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1.141826312295729</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1.090615278110855</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3">
-        <v>1.069045680038937</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1.078421813292713</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
-        <v>0.03666305636005585</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0.03666305636005585</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1.135642028550626</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1.152461798097973</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1.09897897219057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <v>2.051563027429238</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2.056086676990892</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>0.09058116696256627</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0.09058116696256627</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2.111845837553968</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2.145336588917834</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2.021264670591402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3">
-        <v>1.073815441961502</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1.077411605582837</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <v>0.07088963979919598</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0.07088963979919598</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3">
-        <v>2.05177287937635</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2.056762903204603</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
-        <v>0.09126431263531498</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0.09126431263531498</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2.128655264984347</v>
-      </c>
-      <c r="K46" s="3">
-        <v>2.145336588917834</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2.037390952349032</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3">
-        <v>1.074907853347385</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1.085308634748543</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3">
-        <v>0.07329069315265062</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0.07329069315265062</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+        <v>0.03826837089317613</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.016800814049609</v>
+        <v>1.0169135164426</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -609,26 +609,26 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.01692203885466631</v>
+        <v>0.01666889082619859</v>
       </c>
       <c r="D3" s="3">
-        <v>0.01859535576220158</v>
+        <v>0.0176716931644495</v>
       </c>
       <c r="E3" s="3">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
       <c r="F3" s="3">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
       <c r="G3" s="3">
-        <v>0.08545814452443803</v>
+        <v>0.08617558777764428</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>0.08545814452443803</v>
+        <v>0.08617558777764428</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -639,26 +639,26 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0.01685507562774423</v>
+        <v>0.01685488889638669</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0182790356244188</v>
+        <v>0.01764035679596495</v>
       </c>
       <c r="E4" s="3">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
       <c r="F4" s="3">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
       <c r="G4" s="3">
-        <v>0.08587474435964237</v>
+        <v>0.0842251572280414</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>0.08587474435964237</v>
+        <v>0.0842251572280414</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1.033509713892093</v>
+        <v>1.033591569788974</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -689,26 +689,26 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0.03376961987574197</v>
+        <v>0.03355341392096686</v>
       </c>
       <c r="D6" s="3">
-        <v>0.05030423540480082</v>
+        <v>0.0344983546525038</v>
       </c>
       <c r="E6" s="3">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
       <c r="F6" s="3">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
       <c r="G6" s="3">
-        <v>0.08654253549490981</v>
+        <v>0.08466352413729733</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>0.08654253549490981</v>
+        <v>0.08466352413729733</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -719,26 +719,26 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0.03352693033442297</v>
+        <v>0.03358658252057205</v>
       </c>
       <c r="D7" s="3">
-        <v>0.03443699996596532</v>
+        <v>0.03467097544913834</v>
       </c>
       <c r="E7" s="3">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
       <c r="F7" s="3">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
       <c r="G7" s="3">
-        <v>0.08508560094881962</v>
+        <v>0.0851562413831797</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>0.08508560094881962</v>
+        <v>0.0851562413831797</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1.050391250056053</v>
+        <v>1.050283260773969</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -769,26 +769,26 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
       <c r="D9" s="3">
-        <v>0.05125407142908645</v>
+        <v>0.05168697385444766</v>
       </c>
       <c r="E9" s="3">
-        <v>0.05125407142908645</v>
+        <v>0.05168697385444766</v>
       </c>
       <c r="F9" s="3">
-        <v>0.05125407142908645</v>
+        <v>0.05168697385444766</v>
       </c>
       <c r="G9" s="3">
-        <v>0.08522275122011126</v>
+        <v>0.08724235563516219</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>0.08522275122011126</v>
+        <v>0.08724235563516219</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -799,26 +799,26 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
       <c r="D10" s="3">
-        <v>0.05146327232893298</v>
+        <v>0.05139165535419205</v>
       </c>
       <c r="E10" s="3">
-        <v>0.05146327232893298</v>
+        <v>0.05139165535419205</v>
       </c>
       <c r="F10" s="3">
-        <v>0.05146327232893298</v>
+        <v>0.05139165535419205</v>
       </c>
       <c r="G10" s="3">
-        <v>0.08495663343590418</v>
+        <v>0.08669143361387881</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>0.08495663343590418</v>
+        <v>0.08669143361387881</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1.067142241306944</v>
+        <v>1.067045329769673</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -848,18 +848,18 @@
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>0.06628758061348948</v>
+        <v>0.06776926184480186</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>0.06664135760123224</v>
+        <v>0.07051312271922518</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <v>0.03811857288578809</v>
+        <v>0.03697548732354718</v>
       </c>
       <c r="I12" s="3">
-        <v>0.03811857288578809</v>
+        <v>0.03697548732354718</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -872,27 +872,27 @@
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>0.0513466269245555</v>
+        <v>0.05161162326542681</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>0.05347381717524045</v>
+        <v>0.0535644496340338</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <v>0.01709003499068657</v>
+        <v>0.01759282889768155</v>
       </c>
       <c r="I13" s="3">
-        <v>0.01709003499068657</v>
+        <v>0.01759282889768155</v>
       </c>
       <c r="J13" s="3">
-        <v>0.1046203915545045</v>
+        <v>0.07317808471956458</v>
       </c>
       <c r="K13" s="3">
-        <v>0.1383441618260136</v>
+        <v>0.1406556233870375</v>
       </c>
       <c r="L13" s="3">
-        <v>0.0875303565638179</v>
+        <v>0.05558525582188303</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -906,10 +906,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <v>0.05540388480133785</v>
+        <v>0.05420615969042644</v>
       </c>
       <c r="I14" s="3">
-        <v>0.05540388480133785</v>
+        <v>0.05420615969042644</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -926,10 +926,10 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <v>0.07405173812733513</v>
+        <v>0.07477609120267006</v>
       </c>
       <c r="I15" s="3">
-        <v>0.07405173812733513</v>
+        <v>0.07477609120267006</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -946,10 +946,10 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>0.06861632723434764</v>
+        <v>0.0714359284467431</v>
       </c>
       <c r="I16" s="3">
-        <v>0.06861632723434764</v>
+        <v>0.0714359284467431</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -962,18 +962,18 @@
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <v>0.05273160985195426</v>
+        <v>0.05056353335428806</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>0.05329786722223058</v>
+        <v>0.05171805059111472</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>0.01911613067754936</v>
+        <v>0.01763207969430362</v>
       </c>
       <c r="I17" s="3">
-        <v>0.01911613067754936</v>
+        <v>0.01763207969430362</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -985,19 +985,15 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>0.07074497671895393</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>0.0711640376078619</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>0.03815772662660934</v>
+        <v>0.03700547334724513</v>
       </c>
       <c r="I18" s="3">
-        <v>0.03815772662660934</v>
+        <v>0.03700547334724513</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1010,27 +1006,27 @@
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>0.05175034767178005</v>
+        <v>0.05392843610106456</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <v>0.0529704367844372</v>
+        <v>0.05486748190448466</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <v>0.01892682787083259</v>
+        <v>0.01900603299510232</v>
       </c>
       <c r="I19" s="3">
-        <v>0.01892682787083259</v>
+        <v>0.01900603299510232</v>
       </c>
       <c r="J19" s="3">
-        <v>0.07095474562095364</v>
+        <v>0.1067971332745746</v>
       </c>
       <c r="K19" s="3">
-        <v>0.1383441618260136</v>
+        <v>0.1406556233870375</v>
       </c>
       <c r="L19" s="3">
-        <v>0.05202791775012105</v>
+        <v>0.08779110027947223</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1044,10 +1040,10 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>0.057348069772431</v>
+        <v>0.05456161961334502</v>
       </c>
       <c r="I20" s="3">
-        <v>0.057348069772431</v>
+        <v>0.05456161961334502</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1064,10 +1060,10 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>0.08565574102710721</v>
+        <v>0.08856960259172113</v>
       </c>
       <c r="I21" s="3">
-        <v>0.08565574102710721</v>
+        <v>0.08856960259172113</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1084,10 +1080,10 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>0.07191162519589622</v>
+        <v>0.07079636300285064</v>
       </c>
       <c r="I22" s="3">
-        <v>0.07191162519589622</v>
+        <v>0.07079636300285064</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1100,18 +1096,18 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>0.05349334184713703</v>
+        <v>0.05398074622537537</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <v>0.05468547571932831</v>
+        <v>0.05640608022792201</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>0.03452757664317756</v>
+        <v>0.03539441349210933</v>
       </c>
       <c r="I23" s="3">
-        <v>0.03452757664317756</v>
+        <v>0.03539441349210933</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1128,10 +1124,10 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <v>0.05184739065936667</v>
+        <v>0.05365230817645417</v>
       </c>
       <c r="I24" s="3">
-        <v>0.05184739065936667</v>
+        <v>0.05365230817645417</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1144,27 +1140,27 @@
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>0.05244673726284549</v>
+        <v>0.0535089942834801</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>0.05398638641263626</v>
+        <v>0.0562500061314699</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <v>0.01857799905725679</v>
+        <v>0.0194271711827539</v>
       </c>
       <c r="I25" s="3">
-        <v>0.01857799905725679</v>
+        <v>0.0194271711827539</v>
       </c>
       <c r="J25" s="3">
-        <v>0.1215286209485482</v>
+        <v>0.1406556233870375</v>
       </c>
       <c r="K25" s="3">
-        <v>0.1383441618260136</v>
+        <v>0.1406556233870375</v>
       </c>
       <c r="L25" s="3">
-        <v>0.1029506218912914</v>
+        <v>0.1212284522042836</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1178,10 +1174,10 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>0.05525438339209728</v>
+        <v>0.0547680421232897</v>
       </c>
       <c r="I26" s="3">
-        <v>0.05525438339209728</v>
+        <v>0.0547680421232897</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1198,10 +1194,10 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>0.08876846977449541</v>
+        <v>0.08860994980887207</v>
       </c>
       <c r="I27" s="3">
-        <v>0.08876846977449541</v>
+        <v>0.08860994980887207</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1218,10 +1214,10 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>0.07368388863079767</v>
+        <v>0.07318628630163738</v>
       </c>
       <c r="I28" s="3">
-        <v>0.07368388863079767</v>
+        <v>0.07318628630163738</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1234,18 +1230,18 @@
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>0.05428743198301672</v>
+        <v>0.05577460072323061</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <v>0.05584050514417668</v>
+        <v>0.05796028670655441</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>0.03580980554614442</v>
+        <v>0.03555525171818684</v>
       </c>
       <c r="I29" s="3">
-        <v>0.03580980554614442</v>
+        <v>0.03555525171818684</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1262,10 +1258,10 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>0.05345231844492895</v>
+        <v>0.05284054857398124</v>
       </c>
       <c r="I30" s="3">
-        <v>0.05345231844492895</v>
+        <v>0.05284054857398124</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1278,27 +1274,27 @@
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>0.05160346635026589</v>
+        <v>0.05085037548667627</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <v>0.05330738032538453</v>
+        <v>0.05418538536693622</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <v>0.01740136870098069</v>
+        <v>0.01895983431806599</v>
       </c>
       <c r="I31" s="3">
-        <v>0.01740136870098069</v>
+        <v>0.01895983431806599</v>
       </c>
       <c r="J31" s="3">
-        <v>0.0878121112084097</v>
+        <v>0.09002863293932196</v>
       </c>
       <c r="K31" s="3">
-        <v>0.1383441618260136</v>
+        <v>0.1406556233870375</v>
       </c>
       <c r="L31" s="3">
-        <v>0.07041074250742901</v>
+        <v>0.07106879862125598</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1312,10 +1308,10 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <v>0.05539301274072281</v>
+        <v>0.0555996809819309</v>
       </c>
       <c r="I32" s="3">
-        <v>0.05539301274072281</v>
+        <v>0.0555996809819309</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1332,10 +1328,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <v>0.09079241644602147</v>
+        <v>0.09057000635782887</v>
       </c>
       <c r="I33" s="3">
-        <v>0.09079241644602147</v>
+        <v>0.09057000635782887</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1352,10 +1348,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <v>0.07242600939647925</v>
+        <v>0.07322032082980118</v>
       </c>
       <c r="I34" s="3">
-        <v>0.07242600939647925</v>
+        <v>0.07322032082980118</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1368,18 +1364,18 @@
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>0.05901218647039075</v>
+        <v>0.05291480272254764</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>0.06105612188491278</v>
+        <v>0.05314004613964929</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <v>0.0367218645964038</v>
+        <v>0.03502168388118311</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0367218645964038</v>
+        <v>0.03502168388118311</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1392,27 +1388,27 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>0.05217491133478681</v>
+        <v>0.05217297673388838</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <v>0.05427592271353972</v>
+        <v>0.05506814298809995</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <v>0.01901351975458247</v>
+        <v>0.01826991466662603</v>
       </c>
       <c r="I36" s="3">
-        <v>0.01901351975458247</v>
+        <v>0.01826991466662603</v>
       </c>
       <c r="J36" s="3">
-        <v>0.1383441618260136</v>
+        <v>0.1237188829355331</v>
       </c>
       <c r="K36" s="3">
-        <v>0.1383441618260136</v>
+        <v>0.1406556233870375</v>
       </c>
       <c r="L36" s="3">
-        <v>0.1193306420714311</v>
+        <v>0.105448968268907</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1426,10 +1422,10 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <v>0.09084393722546413</v>
+        <v>0.09031006249395696</v>
       </c>
       <c r="I37" s="3">
-        <v>0.09084393722546413</v>
+        <v>0.09031006249395696</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -1446,10 +1442,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <v>0.07425362802569684</v>
+        <v>0.07341224061979684</v>
       </c>
       <c r="I38" s="3">
-        <v>0.07425362802569684</v>
+        <v>0.07341224061979684</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1462,18 +1458,18 @@
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <v>0.07479430059264448</v>
+        <v>0.0615368697785841</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
-        <v>0.07710915620351348</v>
+        <v>0.06336451425905111</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>0.03826837089317613</v>
+        <v>0.0357416718132933</v>
       </c>
       <c r="I39" s="3">
-        <v>0.03826837089317613</v>
+        <v>0.0357416718132933</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>

--- a/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_simulation_crane_1_hostler_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>container_id</t>
   </si>
@@ -58,6 +58,15 @@
     <t>IC-1-Train-19</t>
   </si>
   <si>
+    <t>IC-1-Train-2</t>
+  </si>
+  <si>
+    <t>IC-1-Train-7</t>
+  </si>
+  <si>
+    <t>IC-1-Train-70</t>
+  </si>
+  <si>
     <t>IC-1-Train-9</t>
   </si>
   <si>
@@ -67,6 +76,15 @@
     <t>IC-2-Train-19</t>
   </si>
   <si>
+    <t>IC-2-Train-2</t>
+  </si>
+  <si>
+    <t>IC-2-Train-7</t>
+  </si>
+  <si>
+    <t>IC-2-Train-70</t>
+  </si>
+  <si>
     <t>IC-2-Train-9</t>
   </si>
   <si>
@@ -76,12 +94,24 @@
     <t>IC-3-Train-19</t>
   </si>
   <si>
+    <t>IC-3-Train-2</t>
+  </si>
+  <si>
+    <t>IC-3-Train-7</t>
+  </si>
+  <si>
+    <t>IC-3-Train-70</t>
+  </si>
+  <si>
     <t>IC-3-Train-9</t>
   </si>
   <si>
     <t>IC-4-Train-12</t>
   </si>
   <si>
+    <t>IC-4-Train-2</t>
+  </si>
+  <si>
     <t>OC-1-Train-12</t>
   </si>
   <si>
@@ -103,9 +133,6 @@
     <t>OC-2-Train-12</t>
   </si>
   <si>
-    <t>OC-2-Train-19</t>
-  </si>
-  <si>
     <t>OC-2-Train-2</t>
   </si>
   <si>
@@ -115,15 +142,9 @@
     <t>OC-2-Train-70</t>
   </si>
   <si>
-    <t>OC-2-Train-9</t>
-  </si>
-  <si>
     <t>OC-3-Train-12</t>
   </si>
   <si>
-    <t>OC-3-Train-19</t>
-  </si>
-  <si>
     <t>OC-3-Train-2</t>
   </si>
   <si>
@@ -133,15 +154,9 @@
     <t>OC-3-Train-70</t>
   </si>
   <si>
-    <t>OC-3-Train-9</t>
-  </si>
-  <si>
     <t>OC-4-Train-12</t>
   </si>
   <si>
-    <t>OC-4-Train-19</t>
-  </si>
-  <si>
     <t>OC-4-Train-2</t>
   </si>
   <si>
@@ -151,19 +166,10 @@
     <t>OC-4-Train-70</t>
   </si>
   <si>
-    <t>OC-4-Train-9</t>
-  </si>
-  <si>
-    <t>OC-5-Train-19</t>
-  </si>
-  <si>
     <t>OC-5-Train-7</t>
   </si>
   <si>
     <t>OC-5-Train-70</t>
-  </si>
-  <si>
-    <t>OC-5-Train-9</t>
   </si>
 </sst>
 </file>
@@ -232,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L39" totalsRowShown="0">
-  <autoFilter ref="A1:L39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L41" totalsRowShown="0">
+  <autoFilter ref="A1:L41"/>
   <tableColumns count="12">
     <tableColumn id="1" name="container_id" dataDxfId="0"/>
     <tableColumn id="2" name="train_arrival" dataDxfId="1"/>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,17 +595,27 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0169135164426</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>1.016874921323922</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.017658421097746</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.067289522427809</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.067289522427809</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.101413456053487</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>0.1014134560534872</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -609,26 +625,26 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.01666889082619859</v>
+        <v>0.01678284755939434</v>
       </c>
       <c r="D3" s="3">
-        <v>0.0176716931644495</v>
+        <v>0.01769143804021544</v>
       </c>
       <c r="E3" s="3">
-        <v>0.05036357394523232</v>
+        <v>0.05049328534003458</v>
       </c>
       <c r="F3" s="3">
-        <v>0.05045747976943707</v>
+        <v>0.05054013920208875</v>
       </c>
       <c r="G3" s="3">
-        <v>0.08617558777764428</v>
+        <v>0.08557821581759015</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>0.08617558777764428</v>
+        <v>0.08557821581759015</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -636,29 +652,29 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>0.01685488889638669</v>
+        <v>1.016915358169417</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01764035679596495</v>
+        <v>1.017812546252089</v>
       </c>
       <c r="E4" s="3">
-        <v>0.05036357394523232</v>
+        <v>1.067289522427809</v>
       </c>
       <c r="F4" s="3">
-        <v>0.05036357394523232</v>
+        <v>1.067321866906772</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0842251572280414</v>
+        <v>1.103117962902272</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>0.0842251572280414</v>
+        <v>0.103117962902272</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -666,49 +682,59 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>1.033591569788974</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>2.016783474698359</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.017580184163673</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.050467394563309</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.050467394563309</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.083901939093663</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>0.08390193909366328</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.03355341392096686</v>
+        <v>2.01694026834647</v>
       </c>
       <c r="D6" s="3">
-        <v>0.0344983546525038</v>
+        <v>2.018093590103894</v>
       </c>
       <c r="E6" s="3">
-        <v>0.05045747976943707</v>
+        <v>2.050467394563309</v>
       </c>
       <c r="F6" s="3">
-        <v>0.05036357394523232</v>
+        <v>2.050557029245931</v>
       </c>
       <c r="G6" s="3">
-        <v>0.08466352413729733</v>
+        <v>2.086336985061363</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>0.08466352413729733</v>
+        <v>0.08633698506136334</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -719,26 +745,26 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0.03358658252057205</v>
+        <v>0.0168301426959425</v>
       </c>
       <c r="D7" s="3">
-        <v>0.03467097544913834</v>
+        <v>0.01779253707422995</v>
       </c>
       <c r="E7" s="3">
-        <v>0.05045747976943707</v>
+        <v>0.05049328534003458</v>
       </c>
       <c r="F7" s="3">
-        <v>0.05045747976943707</v>
+        <v>0.05049328534003458</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0851562413831797</v>
+        <v>0.08454693564636254</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>0.0851562413831797</v>
+        <v>0.08454693564636254</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -749,17 +775,27 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1.050283260773969</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>1.033786405479571</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.035372990869611</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.067321866906772</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.067321866906772</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.101356189081271</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>0.1013561890812706</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -769,26 +805,26 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0.05045747976943707</v>
+        <v>0.03364398139168123</v>
       </c>
       <c r="D9" s="3">
-        <v>0.05168697385444766</v>
+        <v>0.03470320680777988</v>
       </c>
       <c r="E9" s="3">
-        <v>0.05168697385444766</v>
+        <v>0.05054013920208875</v>
       </c>
       <c r="F9" s="3">
-        <v>0.05168697385444766</v>
+        <v>0.05054013920208875</v>
       </c>
       <c r="G9" s="3">
-        <v>0.08724235563516219</v>
+        <v>0.08633391448776073</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>0.08724235563516219</v>
+        <v>0.08633391448776073</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -796,29 +832,29 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>0.05036357394523232</v>
+        <v>1.033694304378372</v>
       </c>
       <c r="D10" s="3">
-        <v>0.05139165535419205</v>
+        <v>1.034383496772615</v>
       </c>
       <c r="E10" s="3">
-        <v>0.05139165535419205</v>
+        <v>1.067289522427809</v>
       </c>
       <c r="F10" s="3">
-        <v>0.05139165535419205</v>
+        <v>1.067289522427809</v>
       </c>
       <c r="G10" s="3">
-        <v>0.08669143361387881</v>
+        <v>1.102604603076237</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>0.08669143361387881</v>
+        <v>0.1026046030762373</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -826,248 +862,330 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>1.067045329769673</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>2.033570610901574</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.034506604700191</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.050557029245931</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.050467394563309</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.084550754216415</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>0.08455075421641478</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.033668966282999</v>
+      </c>
       <c r="D12" s="3">
-        <v>0.06776926184480186</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>2.034627590313365</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.050557029245931</v>
+      </c>
       <c r="F12" s="3">
-        <v>0.07051312271922518</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>0.03697548732354718</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.03697548732354718</v>
-      </c>
+        <v>2.050557029245931</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.086422521794865</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>0.08642252179486531</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.03368057778189504</v>
+      </c>
       <c r="D13" s="3">
-        <v>0.05161162326542681</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>0.03491934153442922</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.05054013920208875</v>
+      </c>
       <c r="F13" s="3">
-        <v>0.0535644496340338</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>0.01759282889768155</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.01759282889768155</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.07317808471956458</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.1406556233870375</v>
-      </c>
+        <v>0.05049328534003458</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.08396768530440436</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>0.05558525582188303</v>
+        <v>0.08396768530440436</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>0.05420615969042644</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.05420615969042644</v>
-      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.050585391674682</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.051806904420686</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.067321866906772</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.067321866906772</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.101286450437353</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>0.1012864504373532</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>0.07477609120267006</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.07477609120267006</v>
-      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.05049328534003458</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.05120742393918724</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.05120742393918724</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.05120742393918724</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.08492751157059794</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>0.08492751157059794</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>0.0714359284467431</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.0714359284467431</v>
-      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.050385783035606</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.050862404119087</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.067321866906772</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.067289522427809</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.101040984244725</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>0.1010409842447251</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.050467394563309</v>
+      </c>
       <c r="D17" s="3">
-        <v>0.05056353335428806</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>2.051212911685346</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.051212911685346</v>
+      </c>
       <c r="F17" s="3">
-        <v>0.05171805059111472</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>0.01763207969430362</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.01763207969430362</v>
-      </c>
+        <v>2.051212911685346</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.087302294325922</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>0.08730229432592163</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>0.03700547334724513</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.03700547334724513</v>
-      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.050557029245931</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.051872095504551</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.051872095504551</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.051872095504551</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.087053589976067</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>0.08705358997606716</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.05054013920208875</v>
+      </c>
       <c r="D19" s="3">
-        <v>0.05392843610106456</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>0.05144035266824855</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.05144035266824855</v>
+      </c>
       <c r="F19" s="3">
-        <v>0.05486748190448466</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
-        <v>0.01900603299510232</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.01900603299510232</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.1067971332745746</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.1406556233870375</v>
-      </c>
+        <v>0.05144035266824855</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.08533098022611248</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3">
-        <v>0.08779110027947223</v>
+        <v>0.08533098022611248</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>0.05456161961334502</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.05456161961334502</v>
-      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.067321866906772</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.068730513468525</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.068730513468525</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.068730513468525</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.135506470190968</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>0.1355064701909683</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>0.08856960259172113</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.08856960259172113</v>
-      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.067289522427809</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.068649248043611</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.068649248043611</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.068649248043611</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.135236245841483</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>0.1352362458414831</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
@@ -1075,19 +1193,29 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>0.05145238715103549</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>0.0527242528235482</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>0.07079636300285064</v>
+        <v>0.01772880120082489</v>
       </c>
       <c r="I22" s="3">
-        <v>0.07079636300285064</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+        <v>0.01772880120082489</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.086014027392701</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.136449895653501</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.068285226191876</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
@@ -1096,22 +1224,28 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>0.05398074622537537</v>
+        <v>0.05286841210768264</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <v>0.05640608022792201</v>
+        <v>0.05424237286179238</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>0.03539441349210933</v>
+        <v>0.01838271144212322</v>
       </c>
       <c r="I23" s="3">
-        <v>0.03539441349210933</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+        <v>0.01838271144212322</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.07189412090912724</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.07189412090912724</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.05351140946700402</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
@@ -1119,19 +1253,29 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>1.068252027974223</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>1.06902908998585</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <v>0.05365230817645417</v>
+        <v>0.03665181218285896</v>
       </c>
       <c r="I24" s="3">
-        <v>0.05365230817645417</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+        <v>0.03665181218285896</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.106034958765271</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.139619205594407</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.069383146582412</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
@@ -1140,28 +1284,22 @@
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>0.0535089942834801</v>
+        <v>2.053140777663579</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>0.0562500061314699</v>
+        <v>2.055612464066496</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <v>0.0194271711827539</v>
+        <v>0.07197071563995019</v>
       </c>
       <c r="I25" s="3">
-        <v>0.0194271711827539</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.1406556233870375</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0.1406556233870375</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0.1212284522042836</v>
-      </c>
+        <v>0.07197071563995019</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
@@ -1169,19 +1307,29 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>1.069189855063059</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>1.071631194104621</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>0.0547680421232897</v>
+        <v>0.05365683040682885</v>
       </c>
       <c r="I26" s="3">
-        <v>0.0547680421232897</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+        <v>0.05365683040682885</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2.119206296269284</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2.135952765123528</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2.065549465862455</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
@@ -1189,19 +1337,29 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>0.05198441624326625</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <v>0.05278647120751418</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>0.08860994980887207</v>
+        <v>0.01680114056471102</v>
       </c>
       <c r="I27" s="3">
-        <v>0.08860994980887207</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+        <v>0.01680114056471102</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.07059797403274064</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.07059797403274064</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.05379683346802962</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
@@ -1209,19 +1367,29 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>0.05122517996141358</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>0.05390122872602078</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>0.07318628630163738</v>
+        <v>0.01819494577230153</v>
       </c>
       <c r="I28" s="3">
-        <v>0.07318628630163738</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+        <v>0.01819494577230153</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1.119632591456552</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.136449895653501</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.10143764568425</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
@@ -1230,22 +1398,28 @@
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>0.05577460072323061</v>
+        <v>0.05351797576233391</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <v>0.05796028670655441</v>
+        <v>0.05573957213193234</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>0.03555525171818684</v>
+        <v>0.03580620611637254</v>
       </c>
       <c r="I29" s="3">
-        <v>0.03555525171818684</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+        <v>0.03580620611637254</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.089133252285464</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1.139619205594407</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.053327046169091</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
@@ -1253,15 +1427,19 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>2.051753881948851</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>2.054487423506167</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>0.05284054857398124</v>
+        <v>0.072413947974924</v>
       </c>
       <c r="I30" s="3">
-        <v>0.05284054857398124</v>
+        <v>0.072413947974924</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1274,27 +1452,27 @@
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <v>0.05085037548667627</v>
+        <v>1.068664219616913</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <v>0.05418538536693622</v>
+        <v>1.071774824944322</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <v>0.01895983431806599</v>
+        <v>0.05247420723318598</v>
       </c>
       <c r="I31" s="3">
-        <v>0.01895983431806599</v>
+        <v>0.05247420723318598</v>
       </c>
       <c r="J31" s="3">
-        <v>0.09002863293932196</v>
+        <v>2.135952765123528</v>
       </c>
       <c r="K31" s="3">
-        <v>0.1406556233870375</v>
+        <v>2.135952765123528</v>
       </c>
       <c r="L31" s="3">
-        <v>0.07106879862125598</v>
+        <v>2.083478557890342</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1303,19 +1481,29 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>0.05100503454049661</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>0.05361435762627892</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <v>0.0555996809819309</v>
+        <v>0.01741230060883268</v>
       </c>
       <c r="I32" s="3">
-        <v>0.0555996809819309</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+        <v>0.01741230060883268</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1.102901527360781</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.136449895653501</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1.085489226751948</v>
+      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
@@ -1323,19 +1511,29 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>1.069397545794599</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>1.072239389194419</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <v>0.09057000635782887</v>
+        <v>0.05364938287944518</v>
       </c>
       <c r="I33" s="3">
-        <v>0.09057000635782887</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+        <v>0.05364938287944518</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1.139619205594407</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.139619205594407</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.085969822714962</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
@@ -1343,15 +1541,19 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>2.051837435633554</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <v>2.054387099293667</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <v>0.07322032082980118</v>
+        <v>0.07183021655062383</v>
       </c>
       <c r="I34" s="3">
-        <v>0.07322032082980118</v>
+        <v>0.07183021655062383</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1364,22 +1566,28 @@
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
-        <v>0.05291480272254764</v>
+        <v>1.068937011715024</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>0.05314004613964929</v>
+        <v>1.070921157850921</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <v>0.03502168388118311</v>
+        <v>0.05497781023277563</v>
       </c>
       <c r="I35" s="3">
-        <v>0.03502168388118311</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+        <v>0.05497781023277563</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2.085540813506316</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2.135952765123528</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2.03056300327354</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
@@ -1388,27 +1596,27 @@
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <v>0.05217297673388838</v>
+        <v>0.05363081582634993</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <v>0.05506814298809995</v>
+        <v>0.05521855014279387</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <v>0.01826991466662603</v>
+        <v>0.01836610042018988</v>
       </c>
       <c r="I36" s="3">
-        <v>0.01826991466662603</v>
+        <v>0.01836610042018988</v>
       </c>
       <c r="J36" s="3">
-        <v>0.1237188829355331</v>
+        <v>1.136449895653501</v>
       </c>
       <c r="K36" s="3">
-        <v>0.1406556233870375</v>
+        <v>1.136449895653501</v>
       </c>
       <c r="L36" s="3">
-        <v>0.105448968268907</v>
+        <v>1.118083795233311</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1417,19 +1625,29 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>1.067853484079562</v>
+      </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3">
+        <v>1.069072139216195</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <v>0.09031006249395696</v>
+        <v>0.0543240183315946</v>
       </c>
       <c r="I37" s="3">
-        <v>0.09031006249395696</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+        <v>0.0543240183315946</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1.12283877781313</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.139619205594407</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.068514759481536</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
@@ -1437,15 +1655,19 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3">
+        <v>2.053195671796353</v>
+      </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <v>2.056011057184985</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <v>0.07341224061979684</v>
+        <v>0.07267842793120685</v>
       </c>
       <c r="I38" s="3">
-        <v>0.07341224061979684</v>
+        <v>0.07267842793120685</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1458,22 +1680,82 @@
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <v>0.0615368697785841</v>
+        <v>1.06790189002351</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
-        <v>0.06336451425905111</v>
+        <v>1.069386435634684</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>0.0357416718132933</v>
+        <v>0.05441293996492093</v>
       </c>
       <c r="I39" s="3">
-        <v>0.0357416718132933</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+        <v>0.05441293996492093</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2.068626332005425</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2.135952765123528</v>
+      </c>
+      <c r="L39" s="3">
+        <v>2.014213392040504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>2.05379602212468</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>2.054938159287503</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>0.07430681312354742</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.07430681312354742</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>1.07044919973659</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
+        <v>1.071280706104564</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>0.07142319964947869</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.07142319964947869</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2.102401500677975</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2.135952765123528</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2.030978301028497</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
